--- a/dataset/cleanData/dataYear/data_2014.xlsx
+++ b/dataset/cleanData/dataYear/data_2014.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -570,8 +566,8 @@
           <t>2301</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>42004</v>
+      <c r="B2" t="n">
+        <v>20141231</v>
       </c>
       <c r="C2" t="n">
         <v>153720896</v>
@@ -649,8 +645,8 @@
           <t>2305</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>42004</v>
+      <c r="B3" t="n">
+        <v>20141231</v>
       </c>
       <c r="C3" t="n">
         <v>1385627</v>
@@ -728,8 +724,8 @@
           <t>2324</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>42004</v>
+      <c r="B4" t="n">
+        <v>20141231</v>
       </c>
       <c r="C4" t="n">
         <v>324845249</v>
@@ -807,8 +803,8 @@
           <t>2331</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>42004</v>
+      <c r="B5" t="n">
+        <v>20141231</v>
       </c>
       <c r="C5" t="n">
         <v>24728602</v>
@@ -886,8 +882,8 @@
           <t>2352</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>42004</v>
+      <c r="B6" t="n">
+        <v>20141231</v>
       </c>
       <c r="C6" t="n">
         <v>60015768</v>
@@ -965,8 +961,8 @@
           <t>2353</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>42004</v>
+      <c r="B7" t="n">
+        <v>20141231</v>
       </c>
       <c r="C7" t="n">
         <v>150885170</v>
@@ -1044,8 +1040,8 @@
           <t>2356</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>42004</v>
+      <c r="B8" t="n">
+        <v>20141231</v>
       </c>
       <c r="C8" t="n">
         <v>151098840</v>
@@ -1123,8 +1119,8 @@
           <t>2357</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>42004</v>
+      <c r="B9" t="n">
+        <v>20141231</v>
       </c>
       <c r="C9" t="n">
         <v>274913727</v>
@@ -1202,8 +1198,8 @@
           <t>2362</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>42004</v>
+      <c r="B10" t="n">
+        <v>20141231</v>
       </c>
       <c r="C10" t="n">
         <v>12731779</v>
@@ -1281,8 +1277,8 @@
           <t>2364</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>42004</v>
+      <c r="B11" t="n">
+        <v>20141231</v>
       </c>
       <c r="C11" t="n">
         <v>624078</v>
@@ -1360,8 +1356,8 @@
           <t>2365</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>42004</v>
+      <c r="B12" t="n">
+        <v>20141231</v>
       </c>
       <c r="C12" t="n">
         <v>4835587</v>
@@ -1439,8 +1435,8 @@
           <t>2376</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>42004</v>
+      <c r="B13" t="n">
+        <v>20141231</v>
       </c>
       <c r="C13" t="n">
         <v>26841912</v>
@@ -1518,8 +1514,8 @@
           <t>2377</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>42004</v>
+      <c r="B14" t="n">
+        <v>20141231</v>
       </c>
       <c r="C14" t="n">
         <v>39750040</v>
@@ -1597,8 +1593,8 @@
           <t>2380</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>42004</v>
+      <c r="B15" t="n">
+        <v>20141231</v>
       </c>
       <c r="C15" t="n">
         <v>2609259</v>
@@ -1676,8 +1672,8 @@
           <t>2382</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>42004</v>
+      <c r="B16" t="n">
+        <v>20141231</v>
       </c>
       <c r="C16" t="n">
         <v>541068023</v>
@@ -1755,8 +1751,8 @@
           <t>2387</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>42004</v>
+      <c r="B17" t="n">
+        <v>20141231</v>
       </c>
       <c r="C17" t="n">
         <v>10592315</v>
@@ -1834,8 +1830,8 @@
           <t>2395</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>42004</v>
+      <c r="B18" t="n">
+        <v>20141231</v>
       </c>
       <c r="C18" t="n">
         <v>17990032</v>
@@ -1913,8 +1909,8 @@
           <t>2397</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>42004</v>
+      <c r="B19" t="n">
+        <v>20141231</v>
       </c>
       <c r="C19" t="n">
         <v>3030943</v>
@@ -1992,8 +1988,8 @@
           <t>2399</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>42004</v>
+      <c r="B20" t="n">
+        <v>20141231</v>
       </c>
       <c r="C20" t="n">
         <v>2821300</v>
@@ -2071,8 +2067,8 @@
           <t>2405</t>
         </is>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>42004</v>
+      <c r="B21" t="n">
+        <v>20141231</v>
       </c>
       <c r="C21" t="n">
         <v>5114465</v>
@@ -2150,8 +2146,8 @@
           <t>2417</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>42004</v>
+      <c r="B22" t="n">
+        <v>20141231</v>
       </c>
       <c r="C22" t="n">
         <v>3040247</v>
@@ -2229,8 +2225,8 @@
           <t>2425</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>42004</v>
+      <c r="B23" t="n">
+        <v>20141231</v>
       </c>
       <c r="C23" t="n">
         <v>2017095</v>
@@ -2308,8 +2304,8 @@
           <t>2465</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>42004</v>
+      <c r="B24" t="n">
+        <v>20141231</v>
       </c>
       <c r="C24" t="n">
         <v>975201</v>
@@ -2387,8 +2383,8 @@
           <t>2495</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>42004</v>
+      <c r="B25" t="n">
+        <v>20141231</v>
       </c>
       <c r="C25" t="n">
         <v>3196656</v>
@@ -2466,8 +2462,8 @@
           <t>3002</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>42004</v>
+      <c r="B26" t="n">
+        <v>20141231</v>
       </c>
       <c r="C26" t="n">
         <v>1374906</v>
@@ -2545,8 +2541,8 @@
           <t>3005</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>42004</v>
+      <c r="B27" t="n">
+        <v>20141231</v>
       </c>
       <c r="C27" t="n">
         <v>15362162</v>
@@ -2624,8 +2620,8 @@
           <t>3013</t>
         </is>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>42004</v>
+      <c r="B28" t="n">
+        <v>20141231</v>
       </c>
       <c r="C28" t="n">
         <v>1692321</v>
@@ -2703,8 +2699,8 @@
           <t>3017</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>42004</v>
+      <c r="B29" t="n">
+        <v>20141231</v>
       </c>
       <c r="C29" t="n">
         <v>17006075</v>
@@ -2782,8 +2778,8 @@
           <t>3022</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>42004</v>
+      <c r="B30" t="n">
+        <v>20141231</v>
       </c>
       <c r="C30" t="n">
         <v>10886530</v>
@@ -2861,8 +2857,8 @@
           <t>3046</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>42004</v>
+      <c r="B31" t="n">
+        <v>20141231</v>
       </c>
       <c r="C31" t="n">
         <v>1359327</v>
@@ -2940,8 +2936,8 @@
           <t>3057</t>
         </is>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>42004</v>
+      <c r="B32" t="n">
+        <v>20141231</v>
       </c>
       <c r="C32" t="n">
         <v>2393286</v>
@@ -3019,8 +3015,8 @@
           <t>3060</t>
         </is>
       </c>
-      <c r="B33" s="2" t="n">
-        <v>42004</v>
+      <c r="B33" t="n">
+        <v>20141231</v>
       </c>
       <c r="C33" t="n">
         <v>5336595</v>
@@ -3098,8 +3094,8 @@
           <t>3231</t>
         </is>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>42004</v>
+      <c r="B34" t="n">
+        <v>20141231</v>
       </c>
       <c r="C34" t="n">
         <v>241405603</v>
@@ -3177,8 +3173,8 @@
           <t>3416</t>
         </is>
       </c>
-      <c r="B35" s="2" t="n">
-        <v>42004</v>
+      <c r="B35" t="n">
+        <v>20141231</v>
       </c>
       <c r="C35" t="n">
         <v>1344342</v>
@@ -3256,8 +3252,8 @@
           <t>3494</t>
         </is>
       </c>
-      <c r="B36" s="2" t="n">
-        <v>42004</v>
+      <c r="B36" t="n">
+        <v>20141231</v>
       </c>
       <c r="C36" t="n">
         <v>2079374</v>
@@ -3335,8 +3331,8 @@
           <t>3515</t>
         </is>
       </c>
-      <c r="B37" s="2" t="n">
-        <v>42004</v>
+      <c r="B37" t="n">
+        <v>20141231</v>
       </c>
       <c r="C37" t="n">
         <v>7068735</v>
@@ -3414,8 +3410,8 @@
           <t>3652</t>
         </is>
       </c>
-      <c r="B38" s="2" t="n">
-        <v>42004</v>
+      <c r="B38" t="n">
+        <v>20141231</v>
       </c>
       <c r="C38" t="n">
         <v>1151824</v>
@@ -3493,8 +3489,8 @@
           <t>3701</t>
         </is>
       </c>
-      <c r="B39" s="2" t="n">
-        <v>42004</v>
+      <c r="B39" t="n">
+        <v>20141231</v>
       </c>
       <c r="C39" t="n">
         <v>8449738</v>
@@ -3572,8 +3568,8 @@
           <t>3706</t>
         </is>
       </c>
-      <c r="B40" s="2" t="n">
-        <v>42004</v>
+      <c r="B40" t="n">
+        <v>20141231</v>
       </c>
       <c r="C40" t="n">
         <v>25753781</v>
@@ -3651,8 +3647,8 @@
           <t>4916</t>
         </is>
       </c>
-      <c r="B41" s="2" t="n">
-        <v>42004</v>
+      <c r="B41" t="n">
+        <v>20141231</v>
       </c>
       <c r="C41" t="n">
         <v>1119719</v>
@@ -3730,8 +3726,8 @@
           <t>4938</t>
         </is>
       </c>
-      <c r="B42" s="2" t="n">
-        <v>42004</v>
+      <c r="B42" t="n">
+        <v>20141231</v>
       </c>
       <c r="C42" t="n">
         <v>369602726</v>
@@ -3809,8 +3805,8 @@
           <t>5215</t>
         </is>
       </c>
-      <c r="B43" s="2" t="n">
-        <v>42004</v>
+      <c r="B43" t="n">
+        <v>20141231</v>
       </c>
       <c r="C43" t="n">
         <v>1881830</v>
@@ -3888,8 +3884,8 @@
           <t>5258</t>
         </is>
       </c>
-      <c r="B44" s="2" t="n">
-        <v>42004</v>
+      <c r="B44" t="n">
+        <v>20141231</v>
       </c>
       <c r="C44" t="n">
         <v>1248260</v>
@@ -3967,8 +3963,8 @@
           <t>6117</t>
         </is>
       </c>
-      <c r="B45" s="2" t="n">
-        <v>42004</v>
+      <c r="B45" t="n">
+        <v>20141231</v>
       </c>
       <c r="C45" t="n">
         <v>1797346</v>
@@ -4046,8 +4042,8 @@
           <t>6128</t>
         </is>
       </c>
-      <c r="B46" s="2" t="n">
-        <v>42004</v>
+      <c r="B46" t="n">
+        <v>20141231</v>
       </c>
       <c r="C46" t="n">
         <v>984670</v>
@@ -4125,8 +4121,8 @@
           <t>6166</t>
         </is>
       </c>
-      <c r="B47" s="2" t="n">
-        <v>42004</v>
+      <c r="B47" t="n">
+        <v>20141231</v>
       </c>
       <c r="C47" t="n">
         <v>4539115</v>
@@ -4204,8 +4200,8 @@
           <t>6206</t>
         </is>
       </c>
-      <c r="B48" s="2" t="n">
-        <v>42004</v>
+      <c r="B48" t="n">
+        <v>20141231</v>
       </c>
       <c r="C48" t="n">
         <v>4085795</v>
@@ -4283,8 +4279,8 @@
           <t>6230</t>
         </is>
       </c>
-      <c r="B49" s="2" t="n">
-        <v>42004</v>
+      <c r="B49" t="n">
+        <v>20141231</v>
       </c>
       <c r="C49" t="n">
         <v>4295853</v>
@@ -4362,8 +4358,8 @@
           <t>6235</t>
         </is>
       </c>
-      <c r="B50" s="2" t="n">
-        <v>42004</v>
+      <c r="B50" t="n">
+        <v>20141231</v>
       </c>
       <c r="C50" t="n">
         <v>1097149</v>
@@ -4441,8 +4437,8 @@
           <t>6277</t>
         </is>
       </c>
-      <c r="B51" s="2" t="n">
-        <v>42004</v>
+      <c r="B51" t="n">
+        <v>20141231</v>
       </c>
       <c r="C51" t="n">
         <v>3155232</v>
@@ -4520,8 +4516,8 @@
           <t>6414</t>
         </is>
       </c>
-      <c r="B52" s="2" t="n">
-        <v>42004</v>
+      <c r="B52" t="n">
+        <v>20141231</v>
       </c>
       <c r="C52" t="n">
         <v>3979146</v>
@@ -4599,8 +4595,8 @@
           <t>6579</t>
         </is>
       </c>
-      <c r="B53" s="2" t="n">
-        <v>42004</v>
+      <c r="B53" t="n">
+        <v>20141231</v>
       </c>
       <c r="C53" t="n">
         <v>2295122</v>
@@ -4678,8 +4674,8 @@
           <t>6591</t>
         </is>
       </c>
-      <c r="B54" s="2" t="n">
-        <v>42004</v>
+      <c r="B54" t="n">
+        <v>20141231</v>
       </c>
       <c r="C54" t="n">
         <v>487759</v>
@@ -4757,8 +4753,8 @@
           <t>6669</t>
         </is>
       </c>
-      <c r="B55" s="2" t="n">
-        <v>42004</v>
+      <c r="B55" t="n">
+        <v>20141231</v>
       </c>
       <c r="C55" t="n">
         <v>1896179</v>
@@ -4836,8 +4832,8 @@
           <t>8114</t>
         </is>
       </c>
-      <c r="B56" s="2" t="n">
-        <v>42004</v>
+      <c r="B56" t="n">
+        <v>20141231</v>
       </c>
       <c r="C56" t="n">
         <v>2029089</v>
@@ -4915,8 +4911,8 @@
           <t>8163</t>
         </is>
       </c>
-      <c r="B57" s="2" t="n">
-        <v>42004</v>
+      <c r="B57" t="n">
+        <v>20141231</v>
       </c>
       <c r="C57" t="n">
         <v>11435760</v>
@@ -4994,8 +4990,8 @@
           <t>8210</t>
         </is>
       </c>
-      <c r="B58" s="2" t="n">
-        <v>42004</v>
+      <c r="B58" t="n">
+        <v>20141231</v>
       </c>
       <c r="C58" t="n">
         <v>3126564</v>
@@ -5073,8 +5069,8 @@
           <t>9912</t>
         </is>
       </c>
-      <c r="B59" s="2" t="n">
-        <v>42004</v>
+      <c r="B59" t="n">
+        <v>20141231</v>
       </c>
       <c r="C59" t="n">
         <v>477318</v>

--- a/dataset/cleanData/dataYear/data_2014.xlsx
+++ b/dataset/cleanData/dataYear/data_2014.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/dataset/cleanData/dataYear/data_2014.xlsx
+++ b/dataset/cleanData/dataYear/data_2014.xlsx
@@ -642,77 +642,77 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2305</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>20141231</v>
       </c>
       <c r="C3" t="n">
-        <v>1385627</v>
+        <v>241405603</v>
       </c>
       <c r="D3" t="n">
-        <v>812887</v>
+        <v>58164320</v>
       </c>
       <c r="E3" t="n">
-        <v>2198514</v>
+        <v>299569923</v>
       </c>
       <c r="F3" t="n">
-        <v>691365</v>
+        <v>202857866</v>
       </c>
       <c r="G3" t="n">
-        <v>61512</v>
+        <v>26704961</v>
       </c>
       <c r="H3" t="n">
-        <v>752877</v>
+        <v>229562827</v>
       </c>
       <c r="I3" t="n">
-        <v>1445637</v>
+        <v>70007096</v>
       </c>
       <c r="J3" t="n">
-        <v>2198514</v>
+        <v>299569923</v>
       </c>
       <c r="K3" t="n">
-        <v>2056608</v>
+        <v>24682674</v>
       </c>
       <c r="L3" t="n">
-        <v>2056608</v>
+        <v>24682674</v>
       </c>
       <c r="M3" t="n">
-        <v>-49781</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>162574</v>
+        <v>4844257</v>
       </c>
       <c r="O3" t="n">
-        <v>369.79</v>
+        <v>-37.6</v>
       </c>
       <c r="P3" t="n">
-        <v>18.84</v>
+        <v>0.61</v>
       </c>
       <c r="Q3" t="n">
-        <v>20.35</v>
+        <v>0.82</v>
       </c>
       <c r="R3" t="n">
-        <v>39.75</v>
+        <v>5.25</v>
       </c>
       <c r="S3" t="n">
-        <v>-6.77</v>
+        <v>0.64</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -721,220 +721,220 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2324</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>20141231</v>
       </c>
       <c r="C4" t="n">
-        <v>324845249</v>
+        <v>7068735</v>
       </c>
       <c r="D4" t="n">
-        <v>53905469</v>
+        <v>616067</v>
       </c>
       <c r="E4" t="n">
-        <v>378750718</v>
+        <v>7684802</v>
       </c>
       <c r="F4" t="n">
-        <v>250264267</v>
+        <v>1696510</v>
       </c>
       <c r="G4" t="n">
-        <v>22266514</v>
+        <v>25436</v>
       </c>
       <c r="H4" t="n">
-        <v>272530781</v>
+        <v>1721946</v>
       </c>
       <c r="I4" t="n">
-        <v>106219937</v>
+        <v>5962856</v>
       </c>
       <c r="J4" t="n">
-        <v>378750718</v>
+        <v>7684802</v>
       </c>
       <c r="K4" t="n">
-        <v>44232366</v>
+        <v>1150416</v>
       </c>
       <c r="L4" t="n">
-        <v>44232366</v>
+        <v>1150416</v>
       </c>
       <c r="M4" t="n">
-        <v>-1724739</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>9727352</v>
+        <v>567365</v>
       </c>
       <c r="O4" t="n">
-        <v>159.85</v>
+        <v>-53.86</v>
       </c>
       <c r="P4" t="n">
-        <v>0.89</v>
+        <v>5.48</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.15</v>
+        <v>6.37</v>
       </c>
       <c r="R4" t="n">
-        <v>3.83</v>
+        <v>18.38</v>
       </c>
       <c r="S4" t="n">
-        <v>1.38</v>
+        <v>6.43</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2331</t>
+          <t>2305</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>20141231</v>
       </c>
       <c r="C5" t="n">
-        <v>24728602</v>
+        <v>1385627</v>
       </c>
       <c r="D5" t="n">
-        <v>7744389</v>
+        <v>812887</v>
       </c>
       <c r="E5" t="n">
-        <v>32472991</v>
+        <v>2198514</v>
       </c>
       <c r="F5" t="n">
-        <v>15644972</v>
+        <v>691365</v>
       </c>
       <c r="G5" t="n">
-        <v>610010</v>
+        <v>61512</v>
       </c>
       <c r="H5" t="n">
-        <v>16254982</v>
+        <v>752877</v>
       </c>
       <c r="I5" t="n">
-        <v>16218009</v>
+        <v>1445637</v>
       </c>
       <c r="J5" t="n">
-        <v>32472991</v>
+        <v>2198514</v>
       </c>
       <c r="K5" t="n">
-        <v>5571230</v>
+        <v>2056608</v>
       </c>
       <c r="L5" t="n">
-        <v>5571230</v>
+        <v>2056608</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-49781</v>
       </c>
       <c r="N5" t="n">
-        <v>2036578</v>
+        <v>162574</v>
       </c>
       <c r="O5" t="n">
-        <v>-62.9</v>
+        <v>369.79</v>
       </c>
       <c r="P5" t="n">
-        <v>2.33</v>
+        <v>18.84</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.64</v>
+        <v>20.35</v>
       </c>
       <c r="R5" t="n">
-        <v>9.970000000000001</v>
+        <v>39.75</v>
       </c>
       <c r="S5" t="n">
-        <v>2.89</v>
+        <v>-6.77</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2352</t>
+          <t>2324</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>20141231</v>
       </c>
       <c r="C6" t="n">
-        <v>60015768</v>
+        <v>324845249</v>
       </c>
       <c r="D6" t="n">
-        <v>45504362</v>
+        <v>53905469</v>
       </c>
       <c r="E6" t="n">
-        <v>105520130</v>
+        <v>378750718</v>
       </c>
       <c r="F6" t="n">
-        <v>57101284</v>
+        <v>250264267</v>
       </c>
       <c r="G6" t="n">
-        <v>17384383</v>
+        <v>22266514</v>
       </c>
       <c r="H6" t="n">
-        <v>74485667</v>
+        <v>272530781</v>
       </c>
       <c r="I6" t="n">
-        <v>31034463</v>
+        <v>106219937</v>
       </c>
       <c r="J6" t="n">
-        <v>105520130</v>
+        <v>378750718</v>
       </c>
       <c r="K6" t="n">
-        <v>19667820</v>
+        <v>44232366</v>
       </c>
       <c r="L6" t="n">
-        <v>19667820</v>
+        <v>44232366</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-1724739</v>
       </c>
       <c r="N6" t="n">
-        <v>3687870</v>
+        <v>9727352</v>
       </c>
       <c r="O6" t="n">
-        <v>137.07</v>
+        <v>159.85</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>0.89</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.76</v>
+        <v>1.15</v>
       </c>
       <c r="R6" t="n">
-        <v>11.28</v>
+        <v>3.83</v>
       </c>
       <c r="S6" t="n">
-        <v>2.19</v>
+        <v>1.38</v>
       </c>
       <c r="T6" t="n">
         <v>3</v>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -958,74 +958,74 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2353</t>
+          <t>2331</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>20141231</v>
       </c>
       <c r="C7" t="n">
-        <v>150885170</v>
+        <v>24728602</v>
       </c>
       <c r="D7" t="n">
-        <v>40209867</v>
+        <v>7744389</v>
       </c>
       <c r="E7" t="n">
-        <v>191095037</v>
+        <v>32472991</v>
       </c>
       <c r="F7" t="n">
-        <v>117755891</v>
+        <v>15644972</v>
       </c>
       <c r="G7" t="n">
-        <v>12709296</v>
+        <v>610010</v>
       </c>
       <c r="H7" t="n">
-        <v>130465187</v>
+        <v>16254982</v>
       </c>
       <c r="I7" t="n">
-        <v>60629850</v>
+        <v>16218009</v>
       </c>
       <c r="J7" t="n">
-        <v>191095037</v>
+        <v>32472991</v>
       </c>
       <c r="K7" t="n">
-        <v>27965678</v>
+        <v>5571230</v>
       </c>
       <c r="L7" t="n">
-        <v>27965678</v>
+        <v>5571230</v>
       </c>
       <c r="M7" t="n">
-        <v>-3186038</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>2614419</v>
+        <v>2036578</v>
       </c>
       <c r="O7" t="n">
-        <v>108.73</v>
+        <v>-62.9</v>
       </c>
       <c r="P7" t="n">
-        <v>0.54</v>
+        <v>2.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.79</v>
+        <v>3.64</v>
       </c>
       <c r="R7" t="n">
-        <v>8.779999999999999</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="S7" t="n">
-        <v>0.82</v>
+        <v>2.89</v>
       </c>
       <c r="T7" t="n">
         <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1037,68 +1037,68 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2352</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>20141231</v>
       </c>
       <c r="C8" t="n">
-        <v>151098840</v>
+        <v>60015768</v>
       </c>
       <c r="D8" t="n">
-        <v>44602889</v>
+        <v>45504362</v>
       </c>
       <c r="E8" t="n">
-        <v>195701729</v>
+        <v>105520130</v>
       </c>
       <c r="F8" t="n">
-        <v>126668060</v>
+        <v>57101284</v>
       </c>
       <c r="G8" t="n">
-        <v>4610879</v>
+        <v>17384383</v>
       </c>
       <c r="H8" t="n">
-        <v>131278939</v>
+        <v>74485667</v>
       </c>
       <c r="I8" t="n">
-        <v>64422790</v>
+        <v>31034463</v>
       </c>
       <c r="J8" t="n">
-        <v>195701729</v>
+        <v>105520130</v>
       </c>
       <c r="K8" t="n">
-        <v>35874751</v>
+        <v>19667820</v>
       </c>
       <c r="L8" t="n">
-        <v>35874751</v>
+        <v>19667820</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>9680698</v>
+        <v>3687870</v>
       </c>
       <c r="O8" t="n">
-        <v>7.35</v>
+        <v>137.07</v>
       </c>
       <c r="P8" t="n">
-        <v>1.53</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.22</v>
+        <v>2.76</v>
       </c>
       <c r="R8" t="n">
-        <v>5.36</v>
+        <v>11.28</v>
       </c>
       <c r="S8" t="n">
-        <v>1.63</v>
+        <v>2.19</v>
       </c>
       <c r="T8" t="n">
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
@@ -1116,463 +1116,463 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2357</t>
+          <t>2353</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>20141231</v>
       </c>
       <c r="C9" t="n">
-        <v>274913727</v>
+        <v>150885170</v>
       </c>
       <c r="D9" t="n">
-        <v>77507786</v>
+        <v>40209867</v>
       </c>
       <c r="E9" t="n">
-        <v>352421513</v>
+        <v>191095037</v>
       </c>
       <c r="F9" t="n">
-        <v>178987351</v>
+        <v>117755891</v>
       </c>
       <c r="G9" t="n">
-        <v>7911099</v>
+        <v>12709296</v>
       </c>
       <c r="H9" t="n">
-        <v>186898450</v>
+        <v>130465187</v>
       </c>
       <c r="I9" t="n">
-        <v>165523063</v>
+        <v>60629850</v>
       </c>
       <c r="J9" t="n">
-        <v>352421513</v>
+        <v>191095037</v>
       </c>
       <c r="K9" t="n">
-        <v>7427603</v>
+        <v>27965678</v>
       </c>
       <c r="L9" t="n">
-        <v>7427603</v>
+        <v>27965678</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-3186038</v>
       </c>
       <c r="N9" t="n">
-        <v>25397514</v>
+        <v>2614419</v>
       </c>
       <c r="O9" t="n">
-        <v>-8.44</v>
+        <v>108.73</v>
       </c>
       <c r="P9" t="n">
-        <v>4.13</v>
+        <v>0.54</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.32</v>
+        <v>0.79</v>
       </c>
       <c r="R9" t="n">
-        <v>13.7</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="S9" t="n">
-        <v>4.55</v>
+        <v>0.82</v>
       </c>
       <c r="T9" t="n">
         <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2362</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>20141231</v>
       </c>
       <c r="C10" t="n">
-        <v>12731779</v>
+        <v>151098840</v>
       </c>
       <c r="D10" t="n">
-        <v>102532372</v>
+        <v>44602889</v>
       </c>
       <c r="E10" t="n">
-        <v>115264151</v>
+        <v>195701729</v>
       </c>
       <c r="F10" t="n">
-        <v>20541986</v>
+        <v>126668060</v>
       </c>
       <c r="G10" t="n">
-        <v>43836917</v>
+        <v>4610879</v>
       </c>
       <c r="H10" t="n">
-        <v>64378903</v>
+        <v>131278939</v>
       </c>
       <c r="I10" t="n">
-        <v>50885248</v>
+        <v>64422790</v>
       </c>
       <c r="J10" t="n">
-        <v>115264151</v>
+        <v>195701729</v>
       </c>
       <c r="K10" t="n">
-        <v>6831630</v>
+        <v>35874751</v>
       </c>
       <c r="L10" t="n">
-        <v>6831630</v>
+        <v>35874751</v>
       </c>
       <c r="M10" t="n">
-        <v>-203488</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3386143</v>
+        <v>9680698</v>
       </c>
       <c r="O10" t="n">
-        <v>-32.42</v>
+        <v>7.35</v>
       </c>
       <c r="P10" t="n">
-        <v>12.24</v>
+        <v>1.53</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.77</v>
+        <v>2.22</v>
       </c>
       <c r="R10" t="n">
-        <v>35.57</v>
+        <v>5.36</v>
       </c>
       <c r="S10" t="n">
-        <v>13.66</v>
+        <v>1.63</v>
       </c>
       <c r="T10" t="n">
         <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2364</t>
+          <t>2357</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>20141231</v>
       </c>
       <c r="C11" t="n">
-        <v>624078</v>
+        <v>274913727</v>
       </c>
       <c r="D11" t="n">
-        <v>847243</v>
+        <v>77507786</v>
       </c>
       <c r="E11" t="n">
-        <v>1471321</v>
+        <v>352421513</v>
       </c>
       <c r="F11" t="n">
-        <v>736500</v>
+        <v>178987351</v>
       </c>
       <c r="G11" t="n">
-        <v>4092</v>
+        <v>7911099</v>
       </c>
       <c r="H11" t="n">
-        <v>740592</v>
+        <v>186898450</v>
       </c>
       <c r="I11" t="n">
-        <v>730729</v>
+        <v>165523063</v>
       </c>
       <c r="J11" t="n">
-        <v>1471321</v>
+        <v>352421513</v>
       </c>
       <c r="K11" t="n">
-        <v>1901445</v>
+        <v>7427603</v>
       </c>
       <c r="L11" t="n">
-        <v>1901615</v>
+        <v>7427603</v>
       </c>
       <c r="M11" t="n">
-        <v>-409026</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-179953</v>
+        <v>25397514</v>
       </c>
       <c r="O11" t="n">
-        <v>-1.95</v>
+        <v>-8.44</v>
       </c>
       <c r="P11" t="n">
-        <v>-23.27</v>
+        <v>4.13</v>
       </c>
       <c r="Q11" t="n">
-        <v>-21.11</v>
+        <v>5.32</v>
       </c>
       <c r="R11" t="n">
-        <v>17.91</v>
+        <v>13.7</v>
       </c>
       <c r="S11" t="n">
-        <v>-26.44</v>
+        <v>4.55</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
         <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2365</t>
+          <t>2362</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>20141231</v>
       </c>
       <c r="C12" t="n">
-        <v>4835587</v>
+        <v>12731779</v>
       </c>
       <c r="D12" t="n">
-        <v>2574048</v>
+        <v>102532372</v>
       </c>
       <c r="E12" t="n">
-        <v>7409635</v>
+        <v>115264151</v>
       </c>
       <c r="F12" t="n">
-        <v>2298035</v>
+        <v>20541986</v>
       </c>
       <c r="G12" t="n">
-        <v>652882</v>
+        <v>43836917</v>
       </c>
       <c r="H12" t="n">
-        <v>2950917</v>
+        <v>64378903</v>
       </c>
       <c r="I12" t="n">
-        <v>4458718</v>
+        <v>50885248</v>
       </c>
       <c r="J12" t="n">
-        <v>7409635</v>
+        <v>115264151</v>
       </c>
       <c r="K12" t="n">
-        <v>3032503</v>
+        <v>6831630</v>
       </c>
       <c r="L12" t="n">
-        <v>3032503</v>
+        <v>6831630</v>
       </c>
       <c r="M12" t="n">
-        <v>-170082</v>
+        <v>-203488</v>
       </c>
       <c r="N12" t="n">
-        <v>166091</v>
+        <v>3386143</v>
       </c>
       <c r="O12" t="n">
-        <v>619.7</v>
+        <v>-32.42</v>
       </c>
       <c r="P12" t="n">
-        <v>1.67</v>
+        <v>12.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.19</v>
+        <v>17.77</v>
       </c>
       <c r="R12" t="n">
-        <v>18.51</v>
+        <v>35.57</v>
       </c>
       <c r="S12" t="n">
-        <v>1.54</v>
+        <v>13.66</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2376</t>
+          <t>2364</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>20141231</v>
       </c>
       <c r="C13" t="n">
-        <v>26841912</v>
+        <v>624078</v>
       </c>
       <c r="D13" t="n">
-        <v>6850714</v>
+        <v>847243</v>
       </c>
       <c r="E13" t="n">
-        <v>33692626</v>
+        <v>1471321</v>
       </c>
       <c r="F13" t="n">
-        <v>10653629</v>
+        <v>736500</v>
       </c>
       <c r="G13" t="n">
-        <v>460883</v>
+        <v>4092</v>
       </c>
       <c r="H13" t="n">
-        <v>11114512</v>
+        <v>740592</v>
       </c>
       <c r="I13" t="n">
-        <v>22578114</v>
+        <v>730729</v>
       </c>
       <c r="J13" t="n">
-        <v>33692626</v>
+        <v>1471321</v>
       </c>
       <c r="K13" t="n">
-        <v>6288829</v>
+        <v>1901445</v>
       </c>
       <c r="L13" t="n">
-        <v>6288829</v>
+        <v>1901615</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-409026</v>
       </c>
       <c r="N13" t="n">
-        <v>2944969</v>
+        <v>-179953</v>
       </c>
       <c r="O13" t="n">
-        <v>1.73</v>
+        <v>-1.95</v>
       </c>
       <c r="P13" t="n">
-        <v>4.4</v>
+        <v>-23.27</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.4</v>
+        <v>-21.11</v>
       </c>
       <c r="R13" t="n">
-        <v>17.36</v>
+        <v>17.91</v>
       </c>
       <c r="S13" t="n">
-        <v>3.31</v>
+        <v>-26.44</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>1</v>
       </c>
       <c r="Y13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2377</t>
+          <t>2365</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>20141231</v>
       </c>
       <c r="C14" t="n">
-        <v>39750040</v>
+        <v>4835587</v>
       </c>
       <c r="D14" t="n">
-        <v>6674774</v>
+        <v>2574048</v>
       </c>
       <c r="E14" t="n">
-        <v>46424814</v>
+        <v>7409635</v>
       </c>
       <c r="F14" t="n">
-        <v>21550152</v>
+        <v>2298035</v>
       </c>
       <c r="G14" t="n">
-        <v>342126</v>
+        <v>652882</v>
       </c>
       <c r="H14" t="n">
-        <v>21892278</v>
+        <v>2950917</v>
       </c>
       <c r="I14" t="n">
-        <v>24532536</v>
+        <v>4458718</v>
       </c>
       <c r="J14" t="n">
-        <v>46424814</v>
+        <v>7409635</v>
       </c>
       <c r="K14" t="n">
-        <v>8448562</v>
+        <v>3032503</v>
       </c>
       <c r="L14" t="n">
-        <v>8448562</v>
+        <v>3032503</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-170082</v>
       </c>
       <c r="N14" t="n">
-        <v>3577170</v>
+        <v>166091</v>
       </c>
       <c r="O14" t="n">
-        <v>52.47</v>
+        <v>619.7</v>
       </c>
       <c r="P14" t="n">
-        <v>3.55</v>
+        <v>1.67</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.21</v>
+        <v>2.19</v>
       </c>
       <c r="R14" t="n">
-        <v>13.56</v>
+        <v>18.51</v>
       </c>
       <c r="S14" t="n">
-        <v>4.23</v>
+        <v>1.54</v>
       </c>
       <c r="T14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>1</v>
@@ -1584,153 +1584,153 @@
         <v>1</v>
       </c>
       <c r="Y14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2380</t>
+          <t>2376</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>20141231</v>
       </c>
       <c r="C15" t="n">
-        <v>2609259</v>
+        <v>26841912</v>
       </c>
       <c r="D15" t="n">
-        <v>1791352</v>
+        <v>6850714</v>
       </c>
       <c r="E15" t="n">
-        <v>4400611</v>
+        <v>33692626</v>
       </c>
       <c r="F15" t="n">
-        <v>649770</v>
+        <v>10653629</v>
       </c>
       <c r="G15" t="n">
-        <v>211432</v>
+        <v>460883</v>
       </c>
       <c r="H15" t="n">
-        <v>861202</v>
+        <v>11114512</v>
       </c>
       <c r="I15" t="n">
-        <v>3539409</v>
+        <v>22578114</v>
       </c>
       <c r="J15" t="n">
-        <v>4400611</v>
+        <v>33692626</v>
       </c>
       <c r="K15" t="n">
-        <v>2202244</v>
+        <v>6288829</v>
       </c>
       <c r="L15" t="n">
-        <v>2202244</v>
+        <v>6288829</v>
       </c>
       <c r="M15" t="n">
-        <v>-41195</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-62220</v>
+        <v>2944969</v>
       </c>
       <c r="O15" t="n">
-        <v>65.48999999999999</v>
+        <v>1.73</v>
       </c>
       <c r="P15" t="n">
-        <v>-3.04</v>
+        <v>4.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>-2.23</v>
+        <v>5.4</v>
       </c>
       <c r="R15" t="n">
-        <v>27.2</v>
+        <v>17.36</v>
       </c>
       <c r="S15" t="n">
-        <v>-4.72</v>
+        <v>3.31</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2377</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>20141231</v>
       </c>
       <c r="C16" t="n">
-        <v>541068023</v>
+        <v>39750040</v>
       </c>
       <c r="D16" t="n">
-        <v>66746699</v>
+        <v>6674774</v>
       </c>
       <c r="E16" t="n">
-        <v>607814722</v>
+        <v>46424814</v>
       </c>
       <c r="F16" t="n">
-        <v>441996629</v>
+        <v>21550152</v>
       </c>
       <c r="G16" t="n">
-        <v>25737997</v>
+        <v>342126</v>
       </c>
       <c r="H16" t="n">
-        <v>467734626</v>
+        <v>21892278</v>
       </c>
       <c r="I16" t="n">
-        <v>140080096</v>
+        <v>24532536</v>
       </c>
       <c r="J16" t="n">
-        <v>607814722</v>
+        <v>46424814</v>
       </c>
       <c r="K16" t="n">
-        <v>38626274</v>
+        <v>8448562</v>
       </c>
       <c r="L16" t="n">
-        <v>38626274</v>
+        <v>8448562</v>
       </c>
       <c r="M16" t="n">
-        <v>-333094</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>24361065</v>
+        <v>3577170</v>
       </c>
       <c r="O16" t="n">
-        <v>0.66</v>
+        <v>52.47</v>
       </c>
       <c r="P16" t="n">
-        <v>2.08</v>
+        <v>3.55</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.63</v>
+        <v>4.21</v>
       </c>
       <c r="R16" t="n">
-        <v>4.51</v>
+        <v>13.56</v>
       </c>
       <c r="S16" t="n">
-        <v>1.51</v>
+        <v>4.23</v>
       </c>
       <c r="T16" t="n">
         <v>3</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
         <v>1</v>
@@ -1739,150 +1739,150 @@
         <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2387</t>
+          <t>2380</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>20141231</v>
       </c>
       <c r="C17" t="n">
-        <v>10592315</v>
+        <v>2609259</v>
       </c>
       <c r="D17" t="n">
-        <v>4830210</v>
+        <v>1791352</v>
       </c>
       <c r="E17" t="n">
-        <v>15422525</v>
+        <v>4400611</v>
       </c>
       <c r="F17" t="n">
-        <v>6409349</v>
+        <v>649770</v>
       </c>
       <c r="G17" t="n">
-        <v>103581</v>
+        <v>211432</v>
       </c>
       <c r="H17" t="n">
-        <v>6512930</v>
+        <v>861202</v>
       </c>
       <c r="I17" t="n">
-        <v>8909595</v>
+        <v>3539409</v>
       </c>
       <c r="J17" t="n">
-        <v>15422525</v>
+        <v>4400611</v>
       </c>
       <c r="K17" t="n">
-        <v>3637803</v>
+        <v>2202244</v>
       </c>
       <c r="L17" t="n">
-        <v>3637803</v>
+        <v>2202244</v>
       </c>
       <c r="M17" t="n">
-        <v>-100209</v>
+        <v>-41195</v>
       </c>
       <c r="N17" t="n">
-        <v>986756</v>
+        <v>-62220</v>
       </c>
       <c r="O17" t="n">
-        <v>626.95</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="P17" t="n">
-        <v>4.44</v>
+        <v>-3.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>6.05</v>
+        <v>-2.23</v>
       </c>
       <c r="R17" t="n">
-        <v>13.31</v>
+        <v>27.2</v>
       </c>
       <c r="S17" t="n">
-        <v>6.45</v>
+        <v>-4.72</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2395</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>20141231</v>
       </c>
       <c r="C18" t="n">
-        <v>17990032</v>
+        <v>541068023</v>
       </c>
       <c r="D18" t="n">
-        <v>13553788</v>
+        <v>66746699</v>
       </c>
       <c r="E18" t="n">
-        <v>31543820</v>
+        <v>607814722</v>
       </c>
       <c r="F18" t="n">
-        <v>7779820</v>
+        <v>441996629</v>
       </c>
       <c r="G18" t="n">
-        <v>1230981</v>
+        <v>25737997</v>
       </c>
       <c r="H18" t="n">
-        <v>9010801</v>
+        <v>467734626</v>
       </c>
       <c r="I18" t="n">
-        <v>22533019</v>
+        <v>140080096</v>
       </c>
       <c r="J18" t="n">
-        <v>31543820</v>
+        <v>607814722</v>
       </c>
       <c r="K18" t="n">
-        <v>6301031</v>
+        <v>38626274</v>
       </c>
       <c r="L18" t="n">
-        <v>6312091</v>
+        <v>38626274</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>-333094</v>
       </c>
       <c r="N18" t="n">
-        <v>6054945</v>
+        <v>24361065</v>
       </c>
       <c r="O18" t="n">
-        <v>19.5</v>
+        <v>0.66</v>
       </c>
       <c r="P18" t="n">
-        <v>13.8</v>
+        <v>2.08</v>
       </c>
       <c r="Q18" t="n">
-        <v>16.95</v>
+        <v>2.63</v>
       </c>
       <c r="R18" t="n">
-        <v>40.28</v>
+        <v>4.51</v>
       </c>
       <c r="S18" t="n">
-        <v>15.42</v>
+        <v>1.51</v>
       </c>
       <c r="T18" t="n">
         <v>3</v>
@@ -1891,320 +1891,320 @@
         <v>1</v>
       </c>
       <c r="V18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2397</t>
+          <t>2387</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>20141231</v>
       </c>
       <c r="C19" t="n">
-        <v>3030943</v>
+        <v>10592315</v>
       </c>
       <c r="D19" t="n">
-        <v>501289</v>
+        <v>4830210</v>
       </c>
       <c r="E19" t="n">
-        <v>3532232</v>
+        <v>15422525</v>
       </c>
       <c r="F19" t="n">
-        <v>520353</v>
+        <v>6409349</v>
       </c>
       <c r="G19" t="n">
-        <v>108312</v>
+        <v>103581</v>
       </c>
       <c r="H19" t="n">
-        <v>628665</v>
+        <v>6512930</v>
       </c>
       <c r="I19" t="n">
-        <v>2903567</v>
+        <v>8909595</v>
       </c>
       <c r="J19" t="n">
-        <v>3532232</v>
+        <v>15422525</v>
       </c>
       <c r="K19" t="n">
-        <v>1148399</v>
+        <v>3637803</v>
       </c>
       <c r="L19" t="n">
-        <v>1148399</v>
+        <v>3637803</v>
       </c>
       <c r="M19" t="n">
-        <v>-62601</v>
+        <v>-100209</v>
       </c>
       <c r="N19" t="n">
-        <v>420201</v>
+        <v>986756</v>
       </c>
       <c r="O19" t="n">
-        <v>33.13</v>
+        <v>626.95</v>
       </c>
       <c r="P19" t="n">
-        <v>12.84</v>
+        <v>4.44</v>
       </c>
       <c r="Q19" t="n">
-        <v>16</v>
+        <v>6.05</v>
       </c>
       <c r="R19" t="n">
-        <v>32.77</v>
+        <v>13.31</v>
       </c>
       <c r="S19" t="n">
-        <v>13.63</v>
+        <v>6.45</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2399</t>
+          <t>2395</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>20141231</v>
       </c>
       <c r="C20" t="n">
-        <v>2821300</v>
+        <v>17990032</v>
       </c>
       <c r="D20" t="n">
-        <v>530232</v>
+        <v>13553788</v>
       </c>
       <c r="E20" t="n">
-        <v>3351532</v>
+        <v>31543820</v>
       </c>
       <c r="F20" t="n">
-        <v>818118</v>
+        <v>7779820</v>
       </c>
       <c r="G20" t="n">
-        <v>101165</v>
+        <v>1230981</v>
       </c>
       <c r="H20" t="n">
-        <v>919283</v>
+        <v>9010801</v>
       </c>
       <c r="I20" t="n">
-        <v>2432249</v>
+        <v>22533019</v>
       </c>
       <c r="J20" t="n">
-        <v>3351532</v>
+        <v>31543820</v>
       </c>
       <c r="K20" t="n">
-        <v>1781000</v>
+        <v>6301031</v>
       </c>
       <c r="L20" t="n">
-        <v>1781000</v>
+        <v>6312091</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-39257</v>
+        <v>6054945</v>
       </c>
       <c r="O20" t="n">
-        <v>-153.92</v>
+        <v>19.5</v>
       </c>
       <c r="P20" t="n">
-        <v>-1.59</v>
+        <v>13.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.95</v>
+        <v>16.95</v>
       </c>
       <c r="R20" t="n">
-        <v>8.68</v>
+        <v>40.28</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.59</v>
+        <v>15.42</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2405</t>
+          <t>2397</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20141231</v>
       </c>
       <c r="C21" t="n">
-        <v>5114465</v>
+        <v>3030943</v>
       </c>
       <c r="D21" t="n">
-        <v>789366</v>
+        <v>501289</v>
       </c>
       <c r="E21" t="n">
-        <v>5903831</v>
+        <v>3532232</v>
       </c>
       <c r="F21" t="n">
-        <v>1862749</v>
+        <v>520353</v>
       </c>
       <c r="G21" t="n">
-        <v>77348</v>
+        <v>108312</v>
       </c>
       <c r="H21" t="n">
-        <v>1940097</v>
+        <v>628665</v>
       </c>
       <c r="I21" t="n">
-        <v>3963734</v>
+        <v>2903567</v>
       </c>
       <c r="J21" t="n">
-        <v>5903831</v>
+        <v>3532232</v>
       </c>
       <c r="K21" t="n">
-        <v>3484733</v>
+        <v>1148399</v>
       </c>
       <c r="L21" t="n">
-        <v>3484733</v>
+        <v>1148399</v>
       </c>
       <c r="M21" t="n">
-        <v>-87196</v>
+        <v>-62601</v>
       </c>
       <c r="N21" t="n">
-        <v>-260687</v>
+        <v>420201</v>
       </c>
       <c r="O21" t="n">
-        <v>-156.45</v>
+        <v>33.13</v>
       </c>
       <c r="P21" t="n">
-        <v>-3.78</v>
+        <v>12.84</v>
       </c>
       <c r="Q21" t="n">
-        <v>-3.85</v>
+        <v>16</v>
       </c>
       <c r="R21" t="n">
-        <v>13.45</v>
+        <v>32.77</v>
       </c>
       <c r="S21" t="n">
-        <v>-2</v>
+        <v>13.63</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2417</t>
+          <t>2399</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>20141231</v>
       </c>
       <c r="C22" t="n">
-        <v>3040247</v>
+        <v>2821300</v>
       </c>
       <c r="D22" t="n">
-        <v>2424319</v>
+        <v>530232</v>
       </c>
       <c r="E22" t="n">
-        <v>5464566</v>
+        <v>3351532</v>
       </c>
       <c r="F22" t="n">
-        <v>670072</v>
+        <v>818118</v>
       </c>
       <c r="G22" t="n">
-        <v>22208</v>
+        <v>101165</v>
       </c>
       <c r="H22" t="n">
-        <v>692280</v>
+        <v>919283</v>
       </c>
       <c r="I22" t="n">
-        <v>4772286</v>
+        <v>2432249</v>
       </c>
       <c r="J22" t="n">
-        <v>5464566</v>
+        <v>3351532</v>
       </c>
       <c r="K22" t="n">
-        <v>1991653</v>
+        <v>1781000</v>
       </c>
       <c r="L22" t="n">
-        <v>1991653</v>
+        <v>1781000</v>
       </c>
       <c r="M22" t="n">
-        <v>-42368</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-119964</v>
+        <v>-39257</v>
       </c>
       <c r="O22" t="n">
-        <v>21.19</v>
+        <v>-153.92</v>
       </c>
       <c r="P22" t="n">
-        <v>-5.11</v>
+        <v>-1.59</v>
       </c>
       <c r="Q22" t="n">
-        <v>-4.55</v>
+        <v>-0.95</v>
       </c>
       <c r="R22" t="n">
-        <v>46.51</v>
+        <v>8.68</v>
       </c>
       <c r="S22" t="n">
-        <v>-6.34</v>
+        <v>-0.59</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2222,147 +2222,147 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2425</t>
+          <t>2405</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>20141231</v>
       </c>
       <c r="C23" t="n">
-        <v>2017095</v>
+        <v>5114465</v>
       </c>
       <c r="D23" t="n">
-        <v>179405</v>
+        <v>789366</v>
       </c>
       <c r="E23" t="n">
-        <v>2196500</v>
+        <v>5903831</v>
       </c>
       <c r="F23" t="n">
-        <v>557815</v>
+        <v>1862749</v>
       </c>
       <c r="G23" t="n">
-        <v>1264</v>
+        <v>77348</v>
       </c>
       <c r="H23" t="n">
-        <v>559079</v>
+        <v>1940097</v>
       </c>
       <c r="I23" t="n">
-        <v>1637421</v>
+        <v>3963734</v>
       </c>
       <c r="J23" t="n">
-        <v>2196500</v>
+        <v>5903831</v>
       </c>
       <c r="K23" t="n">
-        <v>1092488</v>
+        <v>3484733</v>
       </c>
       <c r="L23" t="n">
-        <v>1092488</v>
+        <v>3484733</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-87196</v>
       </c>
       <c r="N23" t="n">
-        <v>285532</v>
+        <v>-260687</v>
       </c>
       <c r="O23" t="n">
-        <v>-22.94</v>
+        <v>-156.45</v>
       </c>
       <c r="P23" t="n">
-        <v>4.63</v>
+        <v>-3.78</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.87</v>
+        <v>-3.85</v>
       </c>
       <c r="R23" t="n">
-        <v>5.95</v>
+        <v>13.45</v>
       </c>
       <c r="S23" t="n">
-        <v>3.92</v>
+        <v>-2</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2465</t>
+          <t>2417</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>20141231</v>
       </c>
       <c r="C24" t="n">
-        <v>975201</v>
+        <v>3040247</v>
       </c>
       <c r="D24" t="n">
-        <v>603941</v>
+        <v>2424319</v>
       </c>
       <c r="E24" t="n">
-        <v>1579142</v>
+        <v>5464566</v>
       </c>
       <c r="F24" t="n">
-        <v>909283</v>
+        <v>670072</v>
       </c>
       <c r="G24" t="n">
-        <v>64206</v>
+        <v>22208</v>
       </c>
       <c r="H24" t="n">
-        <v>973489</v>
+        <v>692280</v>
       </c>
       <c r="I24" t="n">
-        <v>605653</v>
+        <v>4772286</v>
       </c>
       <c r="J24" t="n">
-        <v>1579142</v>
+        <v>5464566</v>
       </c>
       <c r="K24" t="n">
-        <v>1071746</v>
+        <v>1991653</v>
       </c>
       <c r="L24" t="n">
-        <v>1071746</v>
+        <v>1991653</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>-42368</v>
       </c>
       <c r="N24" t="n">
-        <v>-140580</v>
+        <v>-119964</v>
       </c>
       <c r="O24" t="n">
-        <v>-38.68</v>
+        <v>21.19</v>
       </c>
       <c r="P24" t="n">
-        <v>-6.62</v>
+        <v>-5.11</v>
       </c>
       <c r="Q24" t="n">
-        <v>-6.6</v>
+        <v>-4.55</v>
       </c>
       <c r="R24" t="n">
-        <v>14.89</v>
+        <v>46.51</v>
       </c>
       <c r="S24" t="n">
-        <v>-5.97</v>
+        <v>-6.34</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2380,68 +2380,68 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>2425</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>20141231</v>
       </c>
       <c r="C25" t="n">
-        <v>3196656</v>
+        <v>2017095</v>
       </c>
       <c r="D25" t="n">
-        <v>1336443</v>
+        <v>179405</v>
       </c>
       <c r="E25" t="n">
-        <v>4533099</v>
+        <v>2196500</v>
       </c>
       <c r="F25" t="n">
-        <v>282762</v>
+        <v>557815</v>
       </c>
       <c r="G25" t="n">
-        <v>67753</v>
+        <v>1264</v>
       </c>
       <c r="H25" t="n">
-        <v>350515</v>
+        <v>559079</v>
       </c>
       <c r="I25" t="n">
-        <v>4182584</v>
+        <v>1637421</v>
       </c>
       <c r="J25" t="n">
-        <v>4533099</v>
+        <v>2196500</v>
       </c>
       <c r="K25" t="n">
-        <v>2833597</v>
+        <v>1092488</v>
       </c>
       <c r="L25" t="n">
-        <v>2833597</v>
+        <v>1092488</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>226279</v>
+        <v>285532</v>
       </c>
       <c r="O25" t="n">
-        <v>299.19</v>
+        <v>-22.94</v>
       </c>
       <c r="P25" t="n">
-        <v>10.95</v>
+        <v>4.63</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.16</v>
+        <v>4.87</v>
       </c>
       <c r="R25" t="n">
-        <v>45.56</v>
+        <v>5.95</v>
       </c>
       <c r="S25" t="n">
-        <v>6.78</v>
+        <v>3.92</v>
       </c>
       <c r="T25" t="n">
         <v>1</v>
       </c>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>2</v>
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>2</v>
@@ -2459,147 +2459,147 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3002</t>
+          <t>2465</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>20141231</v>
       </c>
       <c r="C26" t="n">
-        <v>1374906</v>
+        <v>975201</v>
       </c>
       <c r="D26" t="n">
-        <v>342999</v>
+        <v>603941</v>
       </c>
       <c r="E26" t="n">
-        <v>1717905</v>
+        <v>1579142</v>
       </c>
       <c r="F26" t="n">
-        <v>112443</v>
+        <v>909283</v>
       </c>
       <c r="G26" t="n">
-        <v>237078</v>
+        <v>64206</v>
       </c>
       <c r="H26" t="n">
-        <v>349521</v>
+        <v>973489</v>
       </c>
       <c r="I26" t="n">
-        <v>1368384</v>
+        <v>605653</v>
       </c>
       <c r="J26" t="n">
-        <v>1717905</v>
+        <v>1579142</v>
       </c>
       <c r="K26" t="n">
-        <v>1020000</v>
+        <v>1071746</v>
       </c>
       <c r="L26" t="n">
-        <v>1020000</v>
+        <v>1071746</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>93220</v>
+        <v>-140580</v>
       </c>
       <c r="O26" t="n">
-        <v>53.97</v>
+        <v>-38.68</v>
       </c>
       <c r="P26" t="n">
-        <v>15.25</v>
+        <v>-6.62</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.19</v>
+        <v>-6.6</v>
       </c>
       <c r="R26" t="n">
-        <v>30.53</v>
+        <v>14.89</v>
       </c>
       <c r="S26" t="n">
-        <v>7.22</v>
+        <v>-5.97</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3005</t>
+          <t>2495</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>20141231</v>
       </c>
       <c r="C27" t="n">
-        <v>15362162</v>
+        <v>3196656</v>
       </c>
       <c r="D27" t="n">
-        <v>9176539</v>
+        <v>1336443</v>
       </c>
       <c r="E27" t="n">
-        <v>24538701</v>
+        <v>4533099</v>
       </c>
       <c r="F27" t="n">
-        <v>8930858</v>
+        <v>282762</v>
       </c>
       <c r="G27" t="n">
-        <v>1291455</v>
+        <v>67753</v>
       </c>
       <c r="H27" t="n">
-        <v>10222313</v>
+        <v>350515</v>
       </c>
       <c r="I27" t="n">
-        <v>14316388</v>
+        <v>4182584</v>
       </c>
       <c r="J27" t="n">
-        <v>24538701</v>
+        <v>4533099</v>
       </c>
       <c r="K27" t="n">
-        <v>5820362</v>
+        <v>2833597</v>
       </c>
       <c r="L27" t="n">
-        <v>5820362</v>
+        <v>2833597</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1203241</v>
+        <v>226279</v>
       </c>
       <c r="O27" t="n">
-        <v>70.65000000000001</v>
+        <v>299.19</v>
       </c>
       <c r="P27" t="n">
-        <v>5.23</v>
+        <v>10.95</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.39</v>
+        <v>13.16</v>
       </c>
       <c r="R27" t="n">
-        <v>22</v>
+        <v>45.56</v>
       </c>
       <c r="S27" t="n">
-        <v>4.75</v>
+        <v>6.78</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>2</v>
@@ -2608,7 +2608,7 @@
         <v>2</v>
       </c>
       <c r="X27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y27" t="n">
         <v>2</v>
@@ -2617,393 +2617,393 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3013</t>
+          <t>3002</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>20141231</v>
       </c>
       <c r="C28" t="n">
-        <v>1692321</v>
+        <v>1374906</v>
       </c>
       <c r="D28" t="n">
-        <v>1742070</v>
+        <v>342999</v>
       </c>
       <c r="E28" t="n">
-        <v>3434391</v>
+        <v>1717905</v>
       </c>
       <c r="F28" t="n">
-        <v>972377</v>
+        <v>112443</v>
       </c>
       <c r="G28" t="n">
-        <v>258148</v>
+        <v>237078</v>
       </c>
       <c r="H28" t="n">
-        <v>1230525</v>
+        <v>349521</v>
       </c>
       <c r="I28" t="n">
-        <v>2203866</v>
+        <v>1368384</v>
       </c>
       <c r="J28" t="n">
-        <v>3434391</v>
+        <v>1717905</v>
       </c>
       <c r="K28" t="n">
-        <v>1800000</v>
+        <v>1020000</v>
       </c>
       <c r="L28" t="n">
-        <v>1800000</v>
+        <v>1020000</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>165397</v>
+        <v>93220</v>
       </c>
       <c r="O28" t="n">
-        <v>35.97</v>
+        <v>53.97</v>
       </c>
       <c r="P28" t="n">
-        <v>4.31</v>
+        <v>15.25</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.48</v>
+        <v>18.19</v>
       </c>
       <c r="R28" t="n">
-        <v>8.32</v>
+        <v>30.53</v>
       </c>
       <c r="S28" t="n">
-        <v>-1.94</v>
+        <v>7.22</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3017</t>
+          <t>3005</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>20141231</v>
       </c>
       <c r="C29" t="n">
-        <v>17006075</v>
+        <v>15362162</v>
       </c>
       <c r="D29" t="n">
-        <v>6596480</v>
+        <v>9176539</v>
       </c>
       <c r="E29" t="n">
-        <v>23602555</v>
+        <v>24538701</v>
       </c>
       <c r="F29" t="n">
-        <v>12566051</v>
+        <v>8930858</v>
       </c>
       <c r="G29" t="n">
-        <v>2554152</v>
+        <v>1291455</v>
       </c>
       <c r="H29" t="n">
-        <v>15120203</v>
+        <v>10222313</v>
       </c>
       <c r="I29" t="n">
-        <v>8482352</v>
+        <v>14316388</v>
       </c>
       <c r="J29" t="n">
-        <v>23602555</v>
+        <v>24538701</v>
       </c>
       <c r="K29" t="n">
-        <v>3533101</v>
+        <v>5820362</v>
       </c>
       <c r="L29" t="n">
-        <v>3533101</v>
+        <v>5820362</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>965938</v>
+        <v>1203241</v>
       </c>
       <c r="O29" t="n">
-        <v>211.95</v>
+        <v>70.65000000000001</v>
       </c>
       <c r="P29" t="n">
-        <v>3.09</v>
+        <v>5.23</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.02</v>
+        <v>7.39</v>
       </c>
       <c r="R29" t="n">
-        <v>12.18</v>
+        <v>22</v>
       </c>
       <c r="S29" t="n">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="T29" t="n">
         <v>2</v>
       </c>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3022</t>
+          <t>3013</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>20141231</v>
       </c>
       <c r="C30" t="n">
-        <v>10886530</v>
+        <v>1692321</v>
       </c>
       <c r="D30" t="n">
-        <v>4655111</v>
+        <v>1742070</v>
       </c>
       <c r="E30" t="n">
-        <v>15541641</v>
+        <v>3434391</v>
       </c>
       <c r="F30" t="n">
-        <v>7508746</v>
+        <v>972377</v>
       </c>
       <c r="G30" t="n">
-        <v>801670</v>
+        <v>258148</v>
       </c>
       <c r="H30" t="n">
-        <v>8310416</v>
+        <v>1230525</v>
       </c>
       <c r="I30" t="n">
-        <v>7231225</v>
+        <v>2203866</v>
       </c>
       <c r="J30" t="n">
-        <v>15541641</v>
+        <v>3434391</v>
       </c>
       <c r="K30" t="n">
-        <v>3283144</v>
+        <v>1800000</v>
       </c>
       <c r="L30" t="n">
-        <v>3283144</v>
+        <v>1800000</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1769679</v>
+        <v>165397</v>
       </c>
       <c r="O30" t="n">
-        <v>32.7</v>
+        <v>35.97</v>
       </c>
       <c r="P30" t="n">
-        <v>23.24</v>
+        <v>4.31</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.78</v>
+        <v>5.48</v>
       </c>
       <c r="R30" t="n">
-        <v>31.76</v>
+        <v>8.32</v>
       </c>
       <c r="S30" t="n">
-        <v>10.75</v>
+        <v>-1.94</v>
       </c>
       <c r="T30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3046</t>
+          <t>3017</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>20141231</v>
       </c>
       <c r="C31" t="n">
-        <v>1359327</v>
+        <v>17006075</v>
       </c>
       <c r="D31" t="n">
-        <v>567523</v>
+        <v>6596480</v>
       </c>
       <c r="E31" t="n">
-        <v>1926850</v>
+        <v>23602555</v>
       </c>
       <c r="F31" t="n">
-        <v>752817</v>
+        <v>12566051</v>
       </c>
       <c r="G31" t="n">
-        <v>82781</v>
+        <v>2554152</v>
       </c>
       <c r="H31" t="n">
-        <v>835598</v>
+        <v>15120203</v>
       </c>
       <c r="I31" t="n">
-        <v>1091252</v>
+        <v>8482352</v>
       </c>
       <c r="J31" t="n">
-        <v>1926850</v>
+        <v>23602555</v>
       </c>
       <c r="K31" t="n">
-        <v>1205092</v>
+        <v>3533101</v>
       </c>
       <c r="L31" t="n">
-        <v>1205092</v>
+        <v>3533101</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-273044</v>
+        <v>965938</v>
       </c>
       <c r="O31" t="n">
-        <v>-81.95999999999999</v>
+        <v>211.95</v>
       </c>
       <c r="P31" t="n">
-        <v>-27.94</v>
+        <v>3.09</v>
       </c>
       <c r="Q31" t="n">
-        <v>-24.08</v>
+        <v>4.02</v>
       </c>
       <c r="R31" t="n">
-        <v>23.74</v>
+        <v>12.18</v>
       </c>
       <c r="S31" t="n">
-        <v>-27.34</v>
+        <v>2.3</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3057</t>
+          <t>3022</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>20141231</v>
       </c>
       <c r="C32" t="n">
-        <v>2393286</v>
+        <v>10886530</v>
       </c>
       <c r="D32" t="n">
-        <v>1032656</v>
+        <v>4655111</v>
       </c>
       <c r="E32" t="n">
-        <v>3425942</v>
+        <v>15541641</v>
       </c>
       <c r="F32" t="n">
-        <v>910059</v>
+        <v>7508746</v>
       </c>
       <c r="G32" t="n">
-        <v>58885</v>
+        <v>801670</v>
       </c>
       <c r="H32" t="n">
-        <v>968944</v>
+        <v>8310416</v>
       </c>
       <c r="I32" t="n">
-        <v>2456998</v>
+        <v>7231225</v>
       </c>
       <c r="J32" t="n">
-        <v>3425942</v>
+        <v>15541641</v>
       </c>
       <c r="K32" t="n">
-        <v>1604482</v>
+        <v>3283144</v>
       </c>
       <c r="L32" t="n">
-        <v>1604482</v>
+        <v>3283144</v>
       </c>
       <c r="M32" t="n">
-        <v>-35770</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>499477</v>
+        <v>1769679</v>
       </c>
       <c r="O32" t="n">
-        <v>23.45</v>
+        <v>32.7</v>
       </c>
       <c r="P32" t="n">
-        <v>10.71</v>
+        <v>23.24</v>
       </c>
       <c r="Q32" t="n">
-        <v>13.08</v>
+        <v>27.78</v>
       </c>
       <c r="R32" t="n">
-        <v>45.84</v>
+        <v>31.76</v>
       </c>
       <c r="S32" t="n">
-        <v>11.98</v>
+        <v>10.75</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U32" t="n">
         <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y32" t="n">
         <v>3</v>
@@ -3012,393 +3012,393 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3060</t>
+          <t>3046</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>20141231</v>
       </c>
       <c r="C33" t="n">
-        <v>5336595</v>
+        <v>1359327</v>
       </c>
       <c r="D33" t="n">
-        <v>2291845</v>
+        <v>567523</v>
       </c>
       <c r="E33" t="n">
-        <v>7628440</v>
+        <v>1926850</v>
       </c>
       <c r="F33" t="n">
-        <v>1777934</v>
+        <v>752817</v>
       </c>
       <c r="G33" t="n">
-        <v>593824</v>
+        <v>82781</v>
       </c>
       <c r="H33" t="n">
-        <v>2371758</v>
+        <v>835598</v>
       </c>
       <c r="I33" t="n">
-        <v>5256682</v>
+        <v>1091252</v>
       </c>
       <c r="J33" t="n">
-        <v>7628440</v>
+        <v>1926850</v>
       </c>
       <c r="K33" t="n">
-        <v>1742020</v>
+        <v>1205092</v>
       </c>
       <c r="L33" t="n">
-        <v>1742020</v>
+        <v>1205092</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1002896</v>
+        <v>-273044</v>
       </c>
       <c r="O33" t="n">
-        <v>47.21</v>
+        <v>-81.95999999999999</v>
       </c>
       <c r="P33" t="n">
-        <v>10.79</v>
+        <v>-27.94</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.94</v>
+        <v>-24.08</v>
       </c>
       <c r="R33" t="n">
-        <v>20.23</v>
+        <v>23.74</v>
       </c>
       <c r="S33" t="n">
-        <v>10.35</v>
+        <v>-27.34</v>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>2</v>
       </c>
       <c r="Y33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>3057</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>20141231</v>
       </c>
       <c r="C34" t="n">
-        <v>241405603</v>
+        <v>2393286</v>
       </c>
       <c r="D34" t="n">
-        <v>58164320</v>
+        <v>1032656</v>
       </c>
       <c r="E34" t="n">
-        <v>299569923</v>
+        <v>3425942</v>
       </c>
       <c r="F34" t="n">
-        <v>202857866</v>
+        <v>910059</v>
       </c>
       <c r="G34" t="n">
-        <v>26704961</v>
+        <v>58885</v>
       </c>
       <c r="H34" t="n">
-        <v>229562827</v>
+        <v>968944</v>
       </c>
       <c r="I34" t="n">
-        <v>70007096</v>
+        <v>2456998</v>
       </c>
       <c r="J34" t="n">
-        <v>299569923</v>
+        <v>3425942</v>
       </c>
       <c r="K34" t="n">
-        <v>24682674</v>
+        <v>1604482</v>
       </c>
       <c r="L34" t="n">
-        <v>24682674</v>
+        <v>1604482</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>-35770</v>
       </c>
       <c r="N34" t="n">
-        <v>4844257</v>
+        <v>499477</v>
       </c>
       <c r="O34" t="n">
-        <v>-37.6</v>
+        <v>23.45</v>
       </c>
       <c r="P34" t="n">
-        <v>0.61</v>
+        <v>10.71</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.82</v>
+        <v>13.08</v>
       </c>
       <c r="R34" t="n">
-        <v>5.25</v>
+        <v>45.84</v>
       </c>
       <c r="S34" t="n">
-        <v>0.64</v>
+        <v>11.98</v>
       </c>
       <c r="T34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3416</t>
+          <t>3060</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>20141231</v>
       </c>
       <c r="C35" t="n">
-        <v>1344342</v>
+        <v>5336595</v>
       </c>
       <c r="D35" t="n">
-        <v>608081</v>
+        <v>2291845</v>
       </c>
       <c r="E35" t="n">
-        <v>1952423</v>
+        <v>7628440</v>
       </c>
       <c r="F35" t="n">
-        <v>281676</v>
+        <v>1777934</v>
       </c>
       <c r="G35" t="n">
-        <v>1818</v>
+        <v>593824</v>
       </c>
       <c r="H35" t="n">
-        <v>283494</v>
+        <v>2371758</v>
       </c>
       <c r="I35" t="n">
-        <v>1668929</v>
+        <v>5256682</v>
       </c>
       <c r="J35" t="n">
-        <v>1952423</v>
+        <v>7628440</v>
       </c>
       <c r="K35" t="n">
-        <v>601815</v>
+        <v>1742020</v>
       </c>
       <c r="L35" t="n">
-        <v>601815</v>
+        <v>1742020</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>269853</v>
+        <v>1002896</v>
       </c>
       <c r="O35" t="n">
-        <v>4.97</v>
+        <v>47.21</v>
       </c>
       <c r="P35" t="n">
-        <v>15.38</v>
+        <v>10.79</v>
       </c>
       <c r="Q35" t="n">
-        <v>17.8</v>
+        <v>13.94</v>
       </c>
       <c r="R35" t="n">
-        <v>35.8</v>
+        <v>20.23</v>
       </c>
       <c r="S35" t="n">
-        <v>15.69</v>
+        <v>10.35</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W35" t="n">
         <v>3</v>
       </c>
       <c r="X35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3494</t>
+          <t>3416</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>20141231</v>
       </c>
       <c r="C36" t="n">
-        <v>2079374</v>
+        <v>1344342</v>
       </c>
       <c r="D36" t="n">
-        <v>2135892</v>
+        <v>608081</v>
       </c>
       <c r="E36" t="n">
-        <v>4215266</v>
+        <v>1952423</v>
       </c>
       <c r="F36" t="n">
-        <v>1138800</v>
+        <v>281676</v>
       </c>
       <c r="G36" t="n">
-        <v>250971</v>
+        <v>1818</v>
       </c>
       <c r="H36" t="n">
-        <v>1389771</v>
+        <v>283494</v>
       </c>
       <c r="I36" t="n">
-        <v>2825495</v>
+        <v>1668929</v>
       </c>
       <c r="J36" t="n">
-        <v>4215266</v>
+        <v>1952423</v>
       </c>
       <c r="K36" t="n">
-        <v>1794506</v>
+        <v>601815</v>
       </c>
       <c r="L36" t="n">
-        <v>1794506</v>
+        <v>601815</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>106123</v>
+        <v>269853</v>
       </c>
       <c r="O36" t="n">
-        <v>183.91</v>
+        <v>4.97</v>
       </c>
       <c r="P36" t="n">
-        <v>3.86</v>
+        <v>15.38</v>
       </c>
       <c r="Q36" t="n">
-        <v>4.74</v>
+        <v>17.8</v>
       </c>
       <c r="R36" t="n">
-        <v>27.32</v>
+        <v>35.8</v>
       </c>
       <c r="S36" t="n">
-        <v>3.18</v>
+        <v>15.69</v>
       </c>
       <c r="T36" t="n">
         <v>1</v>
       </c>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3515</t>
+          <t>3494</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>20141231</v>
       </c>
       <c r="C37" t="n">
-        <v>7068735</v>
+        <v>2079374</v>
       </c>
       <c r="D37" t="n">
-        <v>616067</v>
+        <v>2135892</v>
       </c>
       <c r="E37" t="n">
-        <v>7684802</v>
+        <v>4215266</v>
       </c>
       <c r="F37" t="n">
-        <v>1696510</v>
+        <v>1138800</v>
       </c>
       <c r="G37" t="n">
-        <v>25436</v>
+        <v>250971</v>
       </c>
       <c r="H37" t="n">
-        <v>1721946</v>
+        <v>1389771</v>
       </c>
       <c r="I37" t="n">
-        <v>5962856</v>
+        <v>2825495</v>
       </c>
       <c r="J37" t="n">
-        <v>7684802</v>
+        <v>4215266</v>
       </c>
       <c r="K37" t="n">
-        <v>1150416</v>
+        <v>1794506</v>
       </c>
       <c r="L37" t="n">
-        <v>1150416</v>
+        <v>1794506</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>567365</v>
+        <v>106123</v>
       </c>
       <c r="O37" t="n">
-        <v>-53.86</v>
+        <v>183.91</v>
       </c>
       <c r="P37" t="n">
-        <v>5.48</v>
+        <v>3.86</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.37</v>
+        <v>4.74</v>
       </c>
       <c r="R37" t="n">
-        <v>18.38</v>
+        <v>27.32</v>
       </c>
       <c r="S37" t="n">
-        <v>6.43</v>
+        <v>3.18</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>2</v>
       </c>
       <c r="W37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y37" t="n">
         <v>2</v>
@@ -3565,77 +3565,77 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>4916</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>20141231</v>
       </c>
       <c r="C40" t="n">
-        <v>25753781</v>
+        <v>1119719</v>
       </c>
       <c r="D40" t="n">
-        <v>22450083</v>
+        <v>496903</v>
       </c>
       <c r="E40" t="n">
-        <v>48203864</v>
+        <v>1616622</v>
       </c>
       <c r="F40" t="n">
-        <v>15421096</v>
+        <v>165731</v>
       </c>
       <c r="G40" t="n">
-        <v>631149</v>
+        <v>263093</v>
       </c>
       <c r="H40" t="n">
-        <v>16052245</v>
+        <v>428824</v>
       </c>
       <c r="I40" t="n">
-        <v>32151619</v>
+        <v>1187798</v>
       </c>
       <c r="J40" t="n">
-        <v>48203864</v>
+        <v>1616622</v>
       </c>
       <c r="K40" t="n">
-        <v>7694106</v>
+        <v>678990</v>
       </c>
       <c r="L40" t="n">
-        <v>7694106</v>
+        <v>678990</v>
       </c>
       <c r="M40" t="n">
-        <v>-506878</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1050823</v>
+        <v>18184</v>
       </c>
       <c r="O40" t="n">
-        <v>33.31</v>
+        <v>-92.81</v>
       </c>
       <c r="P40" t="n">
-        <v>1.81</v>
+        <v>0.78</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.5</v>
+        <v>1.28</v>
       </c>
       <c r="R40" t="n">
-        <v>13.56</v>
+        <v>10.88</v>
       </c>
       <c r="S40" t="n">
-        <v>-0.86</v>
+        <v>0.16</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3644,615 +3644,615 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4916</t>
+          <t>4938</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>20141231</v>
       </c>
       <c r="C41" t="n">
-        <v>1119719</v>
+        <v>369602726</v>
       </c>
       <c r="D41" t="n">
-        <v>496903</v>
+        <v>87490415</v>
       </c>
       <c r="E41" t="n">
-        <v>1616622</v>
+        <v>457093141</v>
       </c>
       <c r="F41" t="n">
-        <v>165731</v>
+        <v>264997445</v>
       </c>
       <c r="G41" t="n">
-        <v>263093</v>
+        <v>17224466</v>
       </c>
       <c r="H41" t="n">
-        <v>428824</v>
+        <v>282221911</v>
       </c>
       <c r="I41" t="n">
-        <v>1187798</v>
+        <v>174871230</v>
       </c>
       <c r="J41" t="n">
-        <v>1616622</v>
+        <v>457093141</v>
       </c>
       <c r="K41" t="n">
-        <v>678990</v>
+        <v>23679105</v>
       </c>
       <c r="L41" t="n">
-        <v>678990</v>
+        <v>25156805</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>-8183</v>
       </c>
       <c r="N41" t="n">
-        <v>18184</v>
+        <v>26262087</v>
       </c>
       <c r="O41" t="n">
-        <v>-92.81</v>
+        <v>32.85</v>
       </c>
       <c r="P41" t="n">
-        <v>0.78</v>
+        <v>1.86</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.28</v>
+        <v>2.58</v>
       </c>
       <c r="R41" t="n">
-        <v>10.88</v>
+        <v>5.83</v>
       </c>
       <c r="S41" t="n">
-        <v>0.16</v>
+        <v>2.78</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4938</t>
+          <t>5215</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>20141231</v>
       </c>
       <c r="C42" t="n">
-        <v>369602726</v>
+        <v>1881830</v>
       </c>
       <c r="D42" t="n">
-        <v>87490415</v>
+        <v>785568</v>
       </c>
       <c r="E42" t="n">
-        <v>457093141</v>
+        <v>2667398</v>
       </c>
       <c r="F42" t="n">
-        <v>264997445</v>
+        <v>522078</v>
       </c>
       <c r="G42" t="n">
-        <v>17224466</v>
+        <v>87262</v>
       </c>
       <c r="H42" t="n">
-        <v>282221911</v>
+        <v>609340</v>
       </c>
       <c r="I42" t="n">
-        <v>174871230</v>
+        <v>2058058</v>
       </c>
       <c r="J42" t="n">
-        <v>457093141</v>
+        <v>2667398</v>
       </c>
       <c r="K42" t="n">
-        <v>23679105</v>
+        <v>543375</v>
       </c>
       <c r="L42" t="n">
-        <v>25156805</v>
+        <v>543375</v>
       </c>
       <c r="M42" t="n">
-        <v>-8183</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>26262087</v>
+        <v>329683</v>
       </c>
       <c r="O42" t="n">
-        <v>32.85</v>
+        <v>333.6</v>
       </c>
       <c r="P42" t="n">
-        <v>1.86</v>
+        <v>11.55</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.58</v>
+        <v>16.66</v>
       </c>
       <c r="R42" t="n">
-        <v>5.83</v>
+        <v>26.49</v>
       </c>
       <c r="S42" t="n">
-        <v>2.78</v>
+        <v>13.86</v>
       </c>
       <c r="T42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5215</t>
+          <t>5258</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>20141231</v>
       </c>
       <c r="C43" t="n">
-        <v>1881830</v>
+        <v>1248260</v>
       </c>
       <c r="D43" t="n">
-        <v>785568</v>
+        <v>218388</v>
       </c>
       <c r="E43" t="n">
-        <v>2667398</v>
+        <v>1466648</v>
       </c>
       <c r="F43" t="n">
-        <v>522078</v>
+        <v>533708</v>
       </c>
       <c r="G43" t="n">
-        <v>87262</v>
+        <v>10746</v>
       </c>
       <c r="H43" t="n">
-        <v>609340</v>
+        <v>544454</v>
       </c>
       <c r="I43" t="n">
-        <v>2058058</v>
+        <v>922194</v>
       </c>
       <c r="J43" t="n">
-        <v>2667398</v>
+        <v>1466648</v>
       </c>
       <c r="K43" t="n">
-        <v>543375</v>
+        <v>604000</v>
       </c>
       <c r="L43" t="n">
-        <v>543375</v>
+        <v>604000</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>329683</v>
+        <v>113412</v>
       </c>
       <c r="O43" t="n">
-        <v>333.6</v>
+        <v>-18.13</v>
       </c>
       <c r="P43" t="n">
-        <v>11.55</v>
+        <v>4.65</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.66</v>
+        <v>6.38</v>
       </c>
       <c r="R43" t="n">
-        <v>26.49</v>
+        <v>21.63</v>
       </c>
       <c r="S43" t="n">
-        <v>13.86</v>
+        <v>6.63</v>
       </c>
       <c r="T43" t="n">
         <v>1</v>
       </c>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X43" t="n">
         <v>2</v>
       </c>
       <c r="Y43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5258</t>
+          <t>6117</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>20141231</v>
       </c>
       <c r="C44" t="n">
-        <v>1248260</v>
+        <v>1797346</v>
       </c>
       <c r="D44" t="n">
-        <v>218388</v>
+        <v>1694580</v>
       </c>
       <c r="E44" t="n">
-        <v>1466648</v>
+        <v>3491926</v>
       </c>
       <c r="F44" t="n">
-        <v>533708</v>
+        <v>1469810</v>
       </c>
       <c r="G44" t="n">
-        <v>10746</v>
+        <v>45673</v>
       </c>
       <c r="H44" t="n">
-        <v>544454</v>
+        <v>1515483</v>
       </c>
       <c r="I44" t="n">
-        <v>922194</v>
+        <v>1976443</v>
       </c>
       <c r="J44" t="n">
-        <v>1466648</v>
+        <v>3491926</v>
       </c>
       <c r="K44" t="n">
-        <v>604000</v>
+        <v>886500</v>
       </c>
       <c r="L44" t="n">
-        <v>604000</v>
+        <v>886500</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>113412</v>
+        <v>53117</v>
       </c>
       <c r="O44" t="n">
-        <v>-18.13</v>
+        <v>85.5</v>
       </c>
       <c r="P44" t="n">
-        <v>4.65</v>
+        <v>1.27</v>
       </c>
       <c r="Q44" t="n">
-        <v>6.38</v>
+        <v>1.78</v>
       </c>
       <c r="R44" t="n">
-        <v>21.63</v>
+        <v>19.12</v>
       </c>
       <c r="S44" t="n">
-        <v>6.63</v>
+        <v>0.84</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X44" t="n">
         <v>2</v>
       </c>
       <c r="Y44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6117</t>
+          <t>6128</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>20141231</v>
       </c>
       <c r="C45" t="n">
-        <v>1797346</v>
+        <v>984670</v>
       </c>
       <c r="D45" t="n">
-        <v>1694580</v>
+        <v>2698308</v>
       </c>
       <c r="E45" t="n">
-        <v>3491926</v>
+        <v>3682978</v>
       </c>
       <c r="F45" t="n">
-        <v>1469810</v>
+        <v>1494692</v>
       </c>
       <c r="G45" t="n">
-        <v>45673</v>
+        <v>422741</v>
       </c>
       <c r="H45" t="n">
-        <v>1515483</v>
+        <v>1917433</v>
       </c>
       <c r="I45" t="n">
-        <v>1976443</v>
+        <v>1765545</v>
       </c>
       <c r="J45" t="n">
-        <v>3491926</v>
+        <v>3682978</v>
       </c>
       <c r="K45" t="n">
-        <v>886500</v>
+        <v>910887</v>
       </c>
       <c r="L45" t="n">
-        <v>886500</v>
+        <v>910887</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>53117</v>
+        <v>349367</v>
       </c>
       <c r="O45" t="n">
-        <v>85.5</v>
+        <v>27.56</v>
       </c>
       <c r="P45" t="n">
-        <v>1.27</v>
+        <v>15.09</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.78</v>
+        <v>18.81</v>
       </c>
       <c r="R45" t="n">
-        <v>19.12</v>
+        <v>42.13</v>
       </c>
       <c r="S45" t="n">
-        <v>0.84</v>
+        <v>18.21</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6128</t>
+          <t>6166</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>20141231</v>
       </c>
       <c r="C46" t="n">
-        <v>984670</v>
+        <v>4539115</v>
       </c>
       <c r="D46" t="n">
-        <v>2698308</v>
+        <v>1870009</v>
       </c>
       <c r="E46" t="n">
-        <v>3682978</v>
+        <v>6409124</v>
       </c>
       <c r="F46" t="n">
-        <v>1494692</v>
+        <v>2694117</v>
       </c>
       <c r="G46" t="n">
-        <v>422741</v>
+        <v>96936</v>
       </c>
       <c r="H46" t="n">
-        <v>1917433</v>
+        <v>2791053</v>
       </c>
       <c r="I46" t="n">
-        <v>1765545</v>
+        <v>3618071</v>
       </c>
       <c r="J46" t="n">
-        <v>3682978</v>
+        <v>6409124</v>
       </c>
       <c r="K46" t="n">
-        <v>910887</v>
+        <v>1834335</v>
       </c>
       <c r="L46" t="n">
-        <v>910887</v>
+        <v>1834335</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>349367</v>
+        <v>755073</v>
       </c>
       <c r="O46" t="n">
-        <v>27.56</v>
+        <v>41.91</v>
       </c>
       <c r="P46" t="n">
-        <v>15.09</v>
+        <v>7.33</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.81</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="R46" t="n">
-        <v>42.13</v>
+        <v>41.58</v>
       </c>
       <c r="S46" t="n">
-        <v>18.21</v>
+        <v>8.59</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X46" t="n">
         <v>3</v>
       </c>
       <c r="Y46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6166</t>
+          <t>6206</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>20141231</v>
       </c>
       <c r="C47" t="n">
-        <v>4539115</v>
+        <v>4085795</v>
       </c>
       <c r="D47" t="n">
-        <v>1870009</v>
+        <v>1227999</v>
       </c>
       <c r="E47" t="n">
-        <v>6409124</v>
+        <v>5313794</v>
       </c>
       <c r="F47" t="n">
-        <v>2694117</v>
+        <v>1131478</v>
       </c>
       <c r="G47" t="n">
-        <v>96936</v>
+        <v>64117</v>
       </c>
       <c r="H47" t="n">
-        <v>2791053</v>
+        <v>1195595</v>
       </c>
       <c r="I47" t="n">
-        <v>3618071</v>
+        <v>4118199</v>
       </c>
       <c r="J47" t="n">
-        <v>6409124</v>
+        <v>5313794</v>
       </c>
       <c r="K47" t="n">
-        <v>1834335</v>
+        <v>1329472</v>
       </c>
       <c r="L47" t="n">
-        <v>1834335</v>
+        <v>1329472</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>755073</v>
+        <v>1105005</v>
       </c>
       <c r="O47" t="n">
-        <v>41.91</v>
+        <v>11.14</v>
       </c>
       <c r="P47" t="n">
-        <v>7.33</v>
+        <v>20.32</v>
       </c>
       <c r="Q47" t="n">
-        <v>9.380000000000001</v>
+        <v>23.27</v>
       </c>
       <c r="R47" t="n">
-        <v>41.58</v>
+        <v>32.11</v>
       </c>
       <c r="S47" t="n">
-        <v>8.59</v>
+        <v>21.52</v>
       </c>
       <c r="T47" t="n">
         <v>2</v>
       </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X47" t="n">
         <v>3</v>
       </c>
       <c r="Y47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6206</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>20141231</v>
       </c>
       <c r="C48" t="n">
-        <v>4085795</v>
+        <v>4295853</v>
       </c>
       <c r="D48" t="n">
-        <v>1227999</v>
+        <v>1239891</v>
       </c>
       <c r="E48" t="n">
-        <v>5313794</v>
+        <v>5535744</v>
       </c>
       <c r="F48" t="n">
-        <v>1131478</v>
+        <v>2088174</v>
       </c>
       <c r="G48" t="n">
-        <v>64117</v>
+        <v>244775</v>
       </c>
       <c r="H48" t="n">
-        <v>1195595</v>
+        <v>2332949</v>
       </c>
       <c r="I48" t="n">
-        <v>4118199</v>
+        <v>3202795</v>
       </c>
       <c r="J48" t="n">
-        <v>5313794</v>
+        <v>5535744</v>
       </c>
       <c r="K48" t="n">
-        <v>1329472</v>
+        <v>863434</v>
       </c>
       <c r="L48" t="n">
-        <v>1329472</v>
+        <v>863434</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>1105005</v>
+        <v>790528</v>
       </c>
       <c r="O48" t="n">
-        <v>11.14</v>
+        <v>6.45</v>
       </c>
       <c r="P48" t="n">
-        <v>20.32</v>
+        <v>9.6</v>
       </c>
       <c r="Q48" t="n">
-        <v>23.27</v>
+        <v>13.31</v>
       </c>
       <c r="R48" t="n">
-        <v>32.11</v>
+        <v>24.04</v>
       </c>
       <c r="S48" t="n">
-        <v>21.52</v>
+        <v>12.59</v>
       </c>
       <c r="T48" t="n">
         <v>2</v>
@@ -4261,13 +4261,13 @@
         <v>1</v>
       </c>
       <c r="V48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y48" t="n">
         <v>3</v>
@@ -4276,226 +4276,226 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6235</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>20141231</v>
       </c>
       <c r="C49" t="n">
-        <v>4295853</v>
+        <v>1097149</v>
       </c>
       <c r="D49" t="n">
-        <v>1239891</v>
+        <v>1265827</v>
       </c>
       <c r="E49" t="n">
-        <v>5535744</v>
+        <v>2362976</v>
       </c>
       <c r="F49" t="n">
-        <v>2088174</v>
+        <v>980248</v>
       </c>
       <c r="G49" t="n">
-        <v>244775</v>
+        <v>128138</v>
       </c>
       <c r="H49" t="n">
-        <v>2332949</v>
+        <v>1108386</v>
       </c>
       <c r="I49" t="n">
-        <v>3202795</v>
+        <v>1254590</v>
       </c>
       <c r="J49" t="n">
-        <v>5535744</v>
+        <v>2362976</v>
       </c>
       <c r="K49" t="n">
-        <v>863434</v>
+        <v>1614526</v>
       </c>
       <c r="L49" t="n">
-        <v>863434</v>
+        <v>1614526</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>790528</v>
+        <v>-200359</v>
       </c>
       <c r="O49" t="n">
-        <v>6.45</v>
+        <v>-113.26</v>
       </c>
       <c r="P49" t="n">
-        <v>9.6</v>
+        <v>-14.38</v>
       </c>
       <c r="Q49" t="n">
-        <v>13.31</v>
+        <v>-14.33</v>
       </c>
       <c r="R49" t="n">
-        <v>24.04</v>
+        <v>6.27</v>
       </c>
       <c r="S49" t="n">
-        <v>12.59</v>
+        <v>-15.24</v>
       </c>
       <c r="T49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6235</t>
+          <t>6277</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>20141231</v>
       </c>
       <c r="C50" t="n">
-        <v>1097149</v>
+        <v>3155232</v>
       </c>
       <c r="D50" t="n">
-        <v>1265827</v>
+        <v>2544327</v>
       </c>
       <c r="E50" t="n">
-        <v>2362976</v>
+        <v>5699559</v>
       </c>
       <c r="F50" t="n">
-        <v>980248</v>
+        <v>1678125</v>
       </c>
       <c r="G50" t="n">
-        <v>128138</v>
+        <v>467506</v>
       </c>
       <c r="H50" t="n">
-        <v>1108386</v>
+        <v>2145631</v>
       </c>
       <c r="I50" t="n">
-        <v>1254590</v>
+        <v>3553928</v>
       </c>
       <c r="J50" t="n">
-        <v>2362976</v>
+        <v>5699559</v>
       </c>
       <c r="K50" t="n">
-        <v>1614526</v>
+        <v>1194711</v>
       </c>
       <c r="L50" t="n">
-        <v>1614526</v>
+        <v>1194711</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>-200359</v>
+        <v>1052790</v>
       </c>
       <c r="O50" t="n">
-        <v>-113.26</v>
+        <v>2.7</v>
       </c>
       <c r="P50" t="n">
-        <v>-14.38</v>
+        <v>15.86</v>
       </c>
       <c r="Q50" t="n">
-        <v>-14.33</v>
+        <v>21.49</v>
       </c>
       <c r="R50" t="n">
-        <v>6.27</v>
+        <v>58.76</v>
       </c>
       <c r="S50" t="n">
-        <v>-15.24</v>
+        <v>20.68</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6277</t>
+          <t>6414</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>20141231</v>
       </c>
       <c r="C51" t="n">
-        <v>3155232</v>
+        <v>3979146</v>
       </c>
       <c r="D51" t="n">
-        <v>2544327</v>
+        <v>1258308</v>
       </c>
       <c r="E51" t="n">
-        <v>5699559</v>
+        <v>5237454</v>
       </c>
       <c r="F51" t="n">
-        <v>1678125</v>
+        <v>1643794</v>
       </c>
       <c r="G51" t="n">
-        <v>467506</v>
+        <v>8334</v>
       </c>
       <c r="H51" t="n">
-        <v>2145631</v>
+        <v>1652128</v>
       </c>
       <c r="I51" t="n">
-        <v>3553928</v>
+        <v>3585326</v>
       </c>
       <c r="J51" t="n">
-        <v>5699559</v>
+        <v>5237454</v>
       </c>
       <c r="K51" t="n">
-        <v>1194711</v>
+        <v>686803</v>
       </c>
       <c r="L51" t="n">
-        <v>1194711</v>
+        <v>686803</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>1052790</v>
+        <v>703854</v>
       </c>
       <c r="O51" t="n">
-        <v>2.7</v>
+        <v>56.62</v>
       </c>
       <c r="P51" t="n">
-        <v>15.86</v>
+        <v>11.53</v>
       </c>
       <c r="Q51" t="n">
-        <v>21.49</v>
+        <v>13.93</v>
       </c>
       <c r="R51" t="n">
-        <v>58.76</v>
+        <v>18.64</v>
       </c>
       <c r="S51" t="n">
-        <v>20.68</v>
+        <v>12.31</v>
       </c>
       <c r="T51" t="n">
         <v>2</v>
       </c>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
         <v>3</v>
@@ -4504,7 +4504,7 @@
         <v>3</v>
       </c>
       <c r="X51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y51" t="n">
         <v>3</v>
@@ -4513,65 +4513,65 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6414</t>
+          <t>6579</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>20141231</v>
       </c>
       <c r="C52" t="n">
-        <v>3979146</v>
+        <v>2295122</v>
       </c>
       <c r="D52" t="n">
-        <v>1258308</v>
+        <v>958660</v>
       </c>
       <c r="E52" t="n">
-        <v>5237454</v>
+        <v>3253782</v>
       </c>
       <c r="F52" t="n">
-        <v>1643794</v>
+        <v>741578</v>
       </c>
       <c r="G52" t="n">
-        <v>8334</v>
+        <v>171634</v>
       </c>
       <c r="H52" t="n">
-        <v>1652128</v>
+        <v>913212</v>
       </c>
       <c r="I52" t="n">
-        <v>3585326</v>
+        <v>2340570</v>
       </c>
       <c r="J52" t="n">
-        <v>5237454</v>
+        <v>3253782</v>
       </c>
       <c r="K52" t="n">
-        <v>686803</v>
+        <v>960000</v>
       </c>
       <c r="L52" t="n">
-        <v>686803</v>
+        <v>960000</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>703854</v>
+        <v>492918</v>
       </c>
       <c r="O52" t="n">
-        <v>56.62</v>
+        <v>36.24</v>
       </c>
       <c r="P52" t="n">
-        <v>11.53</v>
+        <v>11</v>
       </c>
       <c r="Q52" t="n">
-        <v>13.93</v>
+        <v>13.26</v>
       </c>
       <c r="R52" t="n">
-        <v>18.64</v>
+        <v>35.06</v>
       </c>
       <c r="S52" t="n">
-        <v>12.31</v>
+        <v>11.33</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U52" t="n">
         <v>2</v>
@@ -4580,10 +4580,10 @@
         <v>3</v>
       </c>
       <c r="W52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y52" t="n">
         <v>3</v>
@@ -4592,554 +4592,554 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6579</t>
+          <t>6591</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>20141231</v>
       </c>
       <c r="C53" t="n">
-        <v>2295122</v>
+        <v>487759</v>
       </c>
       <c r="D53" t="n">
-        <v>958660</v>
+        <v>102207</v>
       </c>
       <c r="E53" t="n">
-        <v>3253782</v>
+        <v>589966</v>
       </c>
       <c r="F53" t="n">
-        <v>741578</v>
+        <v>412884</v>
       </c>
       <c r="G53" t="n">
-        <v>171634</v>
+        <v>67212</v>
       </c>
       <c r="H53" t="n">
-        <v>913212</v>
+        <v>480096</v>
       </c>
       <c r="I53" t="n">
-        <v>2340570</v>
+        <v>109870</v>
       </c>
       <c r="J53" t="n">
-        <v>3253782</v>
+        <v>589966</v>
       </c>
       <c r="K53" t="n">
-        <v>960000</v>
+        <v>59999</v>
       </c>
       <c r="L53" t="n">
-        <v>960000</v>
+        <v>59999</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>492918</v>
+        <v>44907</v>
       </c>
       <c r="O53" t="n">
-        <v>36.24</v>
+        <v>111.77</v>
       </c>
       <c r="P53" t="n">
-        <v>11</v>
+        <v>0.23</v>
       </c>
       <c r="Q53" t="n">
-        <v>13.26</v>
+        <v>6.13</v>
       </c>
       <c r="R53" t="n">
-        <v>35.06</v>
+        <v>22.83</v>
       </c>
       <c r="S53" t="n">
-        <v>11.33</v>
+        <v>9.33</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W53" t="n">
         <v>2</v>
       </c>
       <c r="X53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6591</t>
+          <t>6669</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>20141231</v>
       </c>
       <c r="C54" t="n">
-        <v>487759</v>
+        <v>1896179</v>
       </c>
       <c r="D54" t="n">
-        <v>102207</v>
+        <v>61942</v>
       </c>
       <c r="E54" t="n">
-        <v>589966</v>
+        <v>1958121</v>
       </c>
       <c r="F54" t="n">
-        <v>412884</v>
+        <v>1328905</v>
       </c>
       <c r="G54" t="n">
-        <v>67212</v>
+        <v>1514</v>
       </c>
       <c r="H54" t="n">
-        <v>480096</v>
+        <v>1330419</v>
       </c>
       <c r="I54" t="n">
-        <v>109870</v>
+        <v>627702</v>
       </c>
       <c r="J54" t="n">
-        <v>589966</v>
+        <v>1958121</v>
       </c>
       <c r="K54" t="n">
-        <v>59999</v>
+        <v>360000</v>
       </c>
       <c r="L54" t="n">
-        <v>59999</v>
+        <v>360000</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>44907</v>
+        <v>99404</v>
       </c>
       <c r="O54" t="n">
-        <v>111.77</v>
+        <v>91.65473684210529</v>
       </c>
       <c r="P54" t="n">
-        <v>0.23</v>
+        <v>1.76</v>
       </c>
       <c r="Q54" t="n">
-        <v>6.13</v>
+        <v>2.17</v>
       </c>
       <c r="R54" t="n">
-        <v>22.83</v>
+        <v>12.22</v>
       </c>
       <c r="S54" t="n">
-        <v>9.33</v>
+        <v>2.07</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" t="n">
         <v>3</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6669</t>
+          <t>8114</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>20141231</v>
       </c>
       <c r="C55" t="n">
-        <v>1896179</v>
+        <v>2029089</v>
       </c>
       <c r="D55" t="n">
-        <v>61942</v>
+        <v>1200930</v>
       </c>
       <c r="E55" t="n">
-        <v>1958121</v>
+        <v>3230019</v>
       </c>
       <c r="F55" t="n">
-        <v>1328905</v>
+        <v>651992</v>
       </c>
       <c r="G55" t="n">
-        <v>1514</v>
+        <v>875468</v>
       </c>
       <c r="H55" t="n">
-        <v>1330419</v>
+        <v>1527460</v>
       </c>
       <c r="I55" t="n">
-        <v>627702</v>
+        <v>1702559</v>
       </c>
       <c r="J55" t="n">
-        <v>1958121</v>
+        <v>3230019</v>
       </c>
       <c r="K55" t="n">
-        <v>360000</v>
+        <v>653451</v>
       </c>
       <c r="L55" t="n">
-        <v>360000</v>
+        <v>653451</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>99404</v>
+        <v>701425</v>
       </c>
       <c r="O55" t="n">
-        <v>91.65473684210528</v>
+        <v>16.78</v>
       </c>
       <c r="P55" t="n">
-        <v>1.76</v>
+        <v>20.76</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.17</v>
+        <v>24.88</v>
       </c>
       <c r="R55" t="n">
-        <v>12.22</v>
+        <v>41.75</v>
       </c>
       <c r="S55" t="n">
-        <v>2.07</v>
+        <v>23.23</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>8114</t>
+          <t>8163</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>20141231</v>
       </c>
       <c r="C56" t="n">
-        <v>2029089</v>
+        <v>11435760</v>
       </c>
       <c r="D56" t="n">
-        <v>1200930</v>
+        <v>6768220</v>
       </c>
       <c r="E56" t="n">
-        <v>3230019</v>
+        <v>18203980</v>
       </c>
       <c r="F56" t="n">
-        <v>651992</v>
+        <v>7900421</v>
       </c>
       <c r="G56" t="n">
-        <v>875468</v>
+        <v>1303211</v>
       </c>
       <c r="H56" t="n">
-        <v>1527460</v>
+        <v>9203632</v>
       </c>
       <c r="I56" t="n">
-        <v>1702559</v>
+        <v>9000348</v>
       </c>
       <c r="J56" t="n">
-        <v>3230019</v>
+        <v>18203980</v>
       </c>
       <c r="K56" t="n">
-        <v>653451</v>
+        <v>3189020</v>
       </c>
       <c r="L56" t="n">
-        <v>653451</v>
+        <v>3189020</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>701425</v>
+        <v>112591</v>
       </c>
       <c r="O56" t="n">
-        <v>16.78</v>
+        <v>1941.47</v>
       </c>
       <c r="P56" t="n">
-        <v>20.76</v>
+        <v>0.36</v>
       </c>
       <c r="Q56" t="n">
-        <v>24.88</v>
+        <v>0.52</v>
       </c>
       <c r="R56" t="n">
-        <v>41.75</v>
+        <v>11.24</v>
       </c>
       <c r="S56" t="n">
-        <v>23.23</v>
+        <v>0.08</v>
       </c>
       <c r="T56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>8163</t>
+          <t>8210</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>20141231</v>
       </c>
       <c r="C57" t="n">
-        <v>11435760</v>
+        <v>3126564</v>
       </c>
       <c r="D57" t="n">
-        <v>6768220</v>
+        <v>1450745</v>
       </c>
       <c r="E57" t="n">
-        <v>18203980</v>
+        <v>4577309</v>
       </c>
       <c r="F57" t="n">
-        <v>7900421</v>
+        <v>1715556</v>
       </c>
       <c r="G57" t="n">
-        <v>1303211</v>
+        <v>262801</v>
       </c>
       <c r="H57" t="n">
-        <v>9203632</v>
+        <v>1978357</v>
       </c>
       <c r="I57" t="n">
-        <v>9000348</v>
+        <v>2598952</v>
       </c>
       <c r="J57" t="n">
-        <v>18203980</v>
+        <v>4577309</v>
       </c>
       <c r="K57" t="n">
-        <v>3189020</v>
+        <v>1201260</v>
       </c>
       <c r="L57" t="n">
-        <v>3189020</v>
+        <v>1201260</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>-12540</v>
       </c>
       <c r="N57" t="n">
-        <v>112591</v>
+        <v>709894</v>
       </c>
       <c r="O57" t="n">
-        <v>1941.47</v>
+        <v>58.34</v>
       </c>
       <c r="P57" t="n">
-        <v>0.36</v>
+        <v>12.1</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.52</v>
+        <v>15.87</v>
       </c>
       <c r="R57" t="n">
-        <v>11.24</v>
+        <v>30.48</v>
       </c>
       <c r="S57" t="n">
-        <v>0.08</v>
+        <v>14.58</v>
       </c>
       <c r="T57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>8210</t>
+          <t>9912</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>20141231</v>
       </c>
       <c r="C58" t="n">
-        <v>3126564</v>
+        <v>477318</v>
       </c>
       <c r="D58" t="n">
-        <v>1450745</v>
+        <v>379587</v>
       </c>
       <c r="E58" t="n">
-        <v>4577309</v>
+        <v>856905</v>
       </c>
       <c r="F58" t="n">
-        <v>1715556</v>
+        <v>169343</v>
       </c>
       <c r="G58" t="n">
-        <v>262801</v>
+        <v>945</v>
       </c>
       <c r="H58" t="n">
-        <v>1978357</v>
+        <v>170288</v>
       </c>
       <c r="I58" t="n">
-        <v>2598952</v>
+        <v>686617</v>
       </c>
       <c r="J58" t="n">
-        <v>4577309</v>
+        <v>856905</v>
       </c>
       <c r="K58" t="n">
-        <v>1201260</v>
+        <v>538406</v>
       </c>
       <c r="L58" t="n">
-        <v>1201260</v>
+        <v>538406</v>
       </c>
       <c r="M58" t="n">
-        <v>-12540</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>709894</v>
+        <v>1442</v>
       </c>
       <c r="O58" t="n">
-        <v>58.34</v>
+        <v>103.39</v>
       </c>
       <c r="P58" t="n">
-        <v>12.1</v>
+        <v>0.09</v>
       </c>
       <c r="Q58" t="n">
-        <v>15.87</v>
+        <v>0.21</v>
       </c>
       <c r="R58" t="n">
-        <v>30.48</v>
+        <v>29.86</v>
       </c>
       <c r="S58" t="n">
-        <v>14.58</v>
+        <v>1.14</v>
       </c>
       <c r="T58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X58" t="n">
         <v>2</v>
       </c>
       <c r="Y58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>9912</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>20141231</v>
       </c>
       <c r="C59" t="n">
-        <v>477318</v>
+        <v>25753781</v>
       </c>
       <c r="D59" t="n">
-        <v>379587</v>
+        <v>22450083</v>
       </c>
       <c r="E59" t="n">
-        <v>856905</v>
+        <v>48203864</v>
       </c>
       <c r="F59" t="n">
-        <v>169343</v>
+        <v>15421096</v>
       </c>
       <c r="G59" t="n">
-        <v>945</v>
+        <v>631149</v>
       </c>
       <c r="H59" t="n">
-        <v>170288</v>
+        <v>16052245</v>
       </c>
       <c r="I59" t="n">
-        <v>686617</v>
+        <v>32151619</v>
       </c>
       <c r="J59" t="n">
-        <v>856905</v>
+        <v>48203864</v>
       </c>
       <c r="K59" t="n">
-        <v>538406</v>
+        <v>7694106</v>
       </c>
       <c r="L59" t="n">
-        <v>538406</v>
+        <v>7694106</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>-506878</v>
       </c>
       <c r="N59" t="n">
-        <v>1442</v>
+        <v>1050823</v>
       </c>
       <c r="O59" t="n">
-        <v>103.39</v>
+        <v>33.31</v>
       </c>
       <c r="P59" t="n">
-        <v>0.09</v>
+        <v>1.81</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.21</v>
+        <v>2.5</v>
       </c>
       <c r="R59" t="n">
-        <v>29.86</v>
+        <v>13.56</v>
       </c>
       <c r="S59" t="n">
-        <v>1.14</v>
+        <v>-0.86</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
